--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>代码</t>
   </si>
@@ -40,13 +40,16 @@
     <t>金额</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>盈亏</t>
   </si>
   <si>
     <t>开仓日期</t>
   </si>
   <si>
-    <t>截仓日期</t>
+    <t>平仓日期</t>
   </si>
   <si>
     <t>宁波海运</t>
@@ -58,9 +61,15 @@
     <t>海森药业</t>
   </si>
   <si>
+    <t>002891</t>
+  </si>
+  <si>
     <t>中宠股份</t>
   </si>
   <si>
+    <t>002734</t>
+  </si>
+  <si>
     <t>利民股份</t>
   </si>
   <si>
@@ -68,6 +77,54 @@
   </si>
   <si>
     <t>三羊马</t>
+  </si>
+  <si>
+    <t>002648</t>
+  </si>
+  <si>
+    <t>卫星化学</t>
+  </si>
+  <si>
+    <t>港股创新药ETF</t>
+  </si>
+  <si>
+    <t>苏农银行</t>
+  </si>
+  <si>
+    <t>002807</t>
+  </si>
+  <si>
+    <t>江阴银行</t>
+  </si>
+  <si>
+    <t>000421</t>
+  </si>
+  <si>
+    <t>南京公用</t>
+  </si>
+  <si>
+    <t>超讯通信</t>
+  </si>
+  <si>
+    <t>银行ETF</t>
+  </si>
+  <si>
+    <t>游戏ETF</t>
+  </si>
+  <si>
+    <t>000997</t>
+  </si>
+  <si>
+    <t>新大陆</t>
+  </si>
+  <si>
+    <t>山东高速</t>
+  </si>
+  <si>
+    <t>002690</t>
+  </si>
+  <si>
+    <t>美亚光电</t>
   </si>
 </sst>
 </file>
@@ -683,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -691,12 +748,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
@@ -1020,24 +1071,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1055,55 +1106,100 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="3">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
         <v>600798</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>9870</v>
       </c>
       <c r="D2" s="1">
+        <v>2100</v>
+      </c>
+      <c r="E2" s="1">
         <v>-1841.19</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>45797</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>45800</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>7977</v>
       </c>
       <c r="D3" s="1">
+        <v>300</v>
+      </c>
+      <c r="E3" s="1">
         <v>-951.52</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>45803</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25560</v>
+      </c>
+      <c r="D4" s="1">
+        <v>400</v>
+      </c>
+      <c r="E4" s="1">
+        <v>153.92</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45817</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10995</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1">
+        <v>518.29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45819</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45824</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1207,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1119,23 +1215,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,25 +1250,235 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1">
         <v>22450</v>
       </c>
       <c r="D2" s="1">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1">
         <v>-2110.46</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>45813</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>45821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1">
+        <v>20052</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>513120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>40565</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>603323</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20304</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3600</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20382</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4300</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20190</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>603322</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1">
+        <v>21200</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>512800</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="1">
+        <v>21593</v>
+      </c>
+      <c r="D9" s="1">
+        <v>13000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>159869</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20502</v>
+      </c>
+      <c r="D10" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>700</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>513120</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20043</v>
+      </c>
+      <c r="D12" s="1">
+        <v>17000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>600350</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20862</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1900</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21048</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45824</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1486,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2" numberStoredAsText="1"/>
+    <ignoredError sqref="A14 A2:A3 A6:A7 A11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1188,18 +1494,18 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
+    <col min="1" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,6 +1523,9 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>代码</t>
   </si>
@@ -79,6 +79,12 @@
     <t>三羊马</t>
   </si>
   <si>
+    <t>000997</t>
+  </si>
+  <si>
+    <t>新大陆</t>
+  </si>
+  <si>
     <t>002648</t>
   </si>
   <si>
@@ -112,13 +118,34 @@
     <t>游戏ETF</t>
   </si>
   <si>
-    <t>000997</t>
-  </si>
-  <si>
-    <t>新大陆</t>
-  </si>
-  <si>
     <t>山东高速</t>
+  </si>
+  <si>
+    <t>健帆生物</t>
+  </si>
+  <si>
+    <t>爱美客</t>
+  </si>
+  <si>
+    <t>珀莱雅</t>
+  </si>
+  <si>
+    <t>中国中免</t>
+  </si>
+  <si>
+    <t>000858</t>
+  </si>
+  <si>
+    <t>五粮液</t>
+  </si>
+  <si>
+    <t>公牛集团</t>
+  </si>
+  <si>
+    <t>迈瑞医疗</t>
+  </si>
+  <si>
+    <t>药明康德</t>
   </si>
   <si>
     <t>002690</t>
@@ -1080,7 +1107,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
     <col min="4" max="5" width="10.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
@@ -1215,10 +1242,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1285,61 +1312,61 @@
         <v>17</v>
       </c>
       <c r="C3" s="1">
+        <v>21000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>700</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1">
         <v>20052</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>1200</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="2">
         <v>45817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>513120</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="1">
-        <v>40565</v>
-      </c>
-      <c r="D4" s="1">
-        <v>35000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45819</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
+        <v>513120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <v>40565</v>
+      </c>
+      <c r="D5" s="1">
+        <v>35000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
         <v>603323</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1">
-        <v>20304</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3600</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="1">
-        <v>20382</v>
+        <v>20304</v>
       </c>
       <c r="D6" s="1">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="F6" s="2">
         <v>45821</v>
@@ -1353,27 +1380,27 @@
         <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>20190</v>
+        <v>20382</v>
       </c>
       <c r="D7" s="1">
-        <v>3000</v>
+        <v>4300</v>
       </c>
       <c r="F7" s="2">
         <v>45821</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>603322</v>
+      <c r="A8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>21200</v>
+        <v>20190</v>
       </c>
       <c r="D8" s="1">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="F8" s="2">
         <v>45821</v>
@@ -1381,16 +1408,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>512800</v>
+        <v>603322</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>21593</v>
+        <v>21200</v>
       </c>
       <c r="D9" s="1">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="F9" s="2">
         <v>45821</v>
@@ -1398,36 +1425,36 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>159869</v>
+        <v>512800</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
-        <v>20502</v>
+        <v>21593</v>
       </c>
       <c r="D10" s="1">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="F10" s="2">
         <v>45821</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
+      <c r="A11" s="1">
+        <v>159869</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1">
-        <v>21000</v>
+        <v>20502</v>
       </c>
       <c r="D11" s="1">
-        <v>700</v>
+        <v>17000</v>
       </c>
       <c r="F11" s="2">
-        <v>45813</v>
+        <v>45821</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1435,7 +1462,7 @@
         <v>513120</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>20043</v>
@@ -1461,23 +1488,6 @@
         <v>1900</v>
       </c>
       <c r="F13" s="2">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21048</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F14" s="2">
         <v>45824</v>
       </c>
     </row>
@@ -1486,7 +1496,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A14 A2:A3 A6:A7 A11" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A4 A7:A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1494,15 +1504,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1528,9 +1542,201 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>300529</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21980</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>300529</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>21800</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>300896</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34560</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>603605</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1">
+        <v>25440</v>
+      </c>
+      <c r="D5" s="1">
+        <v>300</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>601888</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24592</v>
+      </c>
+      <c r="D6" s="1">
+        <v>400</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24960</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>603195</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20080</v>
+      </c>
+      <c r="D8" s="1">
+        <v>400</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>300760</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>23799</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>603259</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26076</v>
+      </c>
+      <c r="D10" s="1">
+        <v>400</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>21420</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1200</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1">
+        <v>21048</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>45824</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="A11:A12 A7" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>代码</t>
   </si>
@@ -73,6 +73,12 @@
     <t>利民股份</t>
   </si>
   <si>
+    <t>超讯通信</t>
+  </si>
+  <si>
+    <t>香农芯创</t>
+  </si>
+  <si>
     <t>001317</t>
   </si>
   <si>
@@ -109,9 +115,6 @@
     <t>南京公用</t>
   </si>
   <si>
-    <t>超讯通信</t>
-  </si>
-  <si>
     <t>银行ETF</t>
   </si>
   <si>
@@ -121,6 +124,9 @@
     <t>山东高速</t>
   </si>
   <si>
+    <t>常熟银行</t>
+  </si>
+  <si>
     <t>健帆生物</t>
   </si>
   <si>
@@ -152,6 +158,15 @@
   </si>
   <si>
     <t>美亚光电</t>
+  </si>
+  <si>
+    <t>002032</t>
+  </si>
+  <si>
+    <t>苏泊尔</t>
+  </si>
+  <si>
+    <t>亿联网络</t>
   </si>
 </sst>
 </file>
@@ -1098,13 +1113,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -1227,6 +1242,52 @@
       </c>
       <c r="G5" s="2">
         <v>45824</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" s="1">
+        <v>603322</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>21200</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>278.76</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45821</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>300475</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1">
+        <v>11073</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
+      <c r="E7" s="1">
+        <v>101.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45826</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45827</v>
       </c>
     </row>
   </sheetData>
@@ -1242,10 +1303,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="$A14:$XFD14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1283,10 +1344,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1">
         <v>22450</v>
@@ -1306,10 +1367,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>21000</v>
@@ -1323,10 +1384,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>20052</v>
@@ -1343,7 +1404,7 @@
         <v>513120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>40565</v>
@@ -1360,7 +1421,7 @@
         <v>603323</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>20304</v>
@@ -1372,12 +1433,12 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>20382</v>
@@ -1385,16 +1446,22 @@
       <c r="D7" s="1">
         <v>4300</v>
       </c>
+      <c r="E7" s="1">
+        <v>22.77</v>
+      </c>
       <c r="F7" s="2">
         <v>45821</v>
       </c>
+      <c r="G7" s="2">
+        <v>45825</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>20190</v>
@@ -1408,16 +1475,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>603322</v>
+        <v>512800</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
-        <v>21200</v>
+        <v>21593</v>
       </c>
       <c r="D9" s="1">
-        <v>500</v>
+        <v>13000</v>
       </c>
       <c r="F9" s="2">
         <v>45821</v>
@@ -1425,16 +1492,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>512800</v>
+        <v>159869</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>21593</v>
+        <v>20502</v>
       </c>
       <c r="D10" s="1">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="F10" s="2">
         <v>45821</v>
@@ -1442,33 +1509,33 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>159869</v>
+        <v>513120</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
-        <v>20502</v>
+        <v>20043</v>
       </c>
       <c r="D11" s="1">
         <v>17000</v>
       </c>
       <c r="F11" s="2">
-        <v>45821</v>
+        <v>45824</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>513120</v>
+        <v>600350</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
-        <v>20043</v>
+        <v>20862</v>
       </c>
       <c r="D12" s="1">
-        <v>17000</v>
+        <v>1900</v>
       </c>
       <c r="F12" s="2">
         <v>45824</v>
@@ -1476,27 +1543,65 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>600350</v>
+        <v>601128</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20385</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2700</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14" s="1">
+        <v>513120</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20214</v>
+      </c>
+      <c r="D14" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <v>45825</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" s="1">
+        <v>159869</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="1">
-        <v>20862</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45824</v>
-      </c>
+      <c r="C15" s="1">
+        <v>20587</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17000</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>45825</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A4 A7:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:A8 A2:A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1504,10 +1609,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1547,7 +1652,7 @@
         <v>300529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>21980</v>
@@ -1564,7 +1669,7 @@
         <v>300529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>21800</v>
@@ -1581,7 +1686,7 @@
         <v>300896</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>34560</v>
@@ -1598,7 +1703,7 @@
         <v>603605</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>25440</v>
@@ -1615,7 +1720,7 @@
         <v>601888</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>24592</v>
@@ -1629,10 +1734,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>24960</v>
@@ -1649,7 +1754,7 @@
         <v>603195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C8" s="1">
         <v>20080</v>
@@ -1666,7 +1771,7 @@
         <v>300760</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1">
         <v>23799</v>
@@ -1683,7 +1788,7 @@
         <v>603259</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="1">
         <v>26076</v>
@@ -1697,10 +1802,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" s="1">
         <v>21420</v>
@@ -1714,10 +1819,10 @@
     </row>
     <row r="12" customFormat="1" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="1">
         <v>21048</v>
@@ -1730,13 +1835,66 @@
         <v>45824</v>
       </c>
       <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21120</v>
+      </c>
+      <c r="D13" s="1">
+        <v>400</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>300628</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="1">
+        <v>21000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>600</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" s="1">
+        <v>603195</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1">
+        <v>23620</v>
+      </c>
+      <c r="D15" s="1">
+        <v>500</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>45831</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A11:A12 A7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A11:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>代码</t>
   </si>
@@ -43,6 +43,9 @@
     <t>数量</t>
   </si>
   <si>
+    <t>单价</t>
+  </si>
+  <si>
     <t>盈亏</t>
   </si>
   <si>
@@ -79,6 +82,9 @@
     <t>香农芯创</t>
   </si>
   <si>
+    <t>万辰集团</t>
+  </si>
+  <si>
     <t>001317</t>
   </si>
   <si>
@@ -127,6 +133,15 @@
     <t>常熟银行</t>
   </si>
   <si>
+    <t>中际旭创</t>
+  </si>
+  <si>
+    <t>创业板ETF</t>
+  </si>
+  <si>
+    <t>创成长ETF</t>
+  </si>
+  <si>
     <t>健帆生物</t>
   </si>
   <si>
@@ -167,6 +182,9 @@
   </si>
   <si>
     <t>亿联网络</t>
+  </si>
+  <si>
+    <t>兴齐眼药</t>
   </si>
 </sst>
 </file>
@@ -1113,23 +1131,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="11" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1151,13 +1171,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>600798</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>9870</v>
@@ -1166,21 +1189,25 @@
         <v>2100</v>
       </c>
       <c r="E2" s="1">
+        <f>C2/D2</f>
+        <v>4.7</v>
+      </c>
+      <c r="F2" s="1">
         <v>-1841.19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>45797</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>45800</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>7977</v>
@@ -1189,21 +1216,25 @@
         <v>300</v>
       </c>
       <c r="E3" s="1">
+        <f t="shared" ref="E3:E8" si="0">C3/D3</f>
+        <v>26.59</v>
+      </c>
+      <c r="F3" s="1">
         <v>-951.52</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>45803</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>25560</v>
@@ -1212,21 +1243,25 @@
         <v>400</v>
       </c>
       <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>63.9</v>
+      </c>
+      <c r="F4" s="1">
         <v>153.92</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>45817</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>45824</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <v>10995</v>
@@ -1235,21 +1270,25 @@
         <v>500</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>21.99</v>
+      </c>
+      <c r="F5" s="1">
         <v>518.29</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>45819</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>45824</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" customFormat="1" spans="1:8">
       <c r="A6" s="1">
         <v>603322</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>21200</v>
@@ -1258,21 +1297,25 @@
         <v>500</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>42.4</v>
+      </c>
+      <c r="F6" s="1">
         <v>278.76</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>45821</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>45825</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>300475</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>11073</v>
@@ -1281,13 +1324,38 @@
         <v>300</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>36.91</v>
+      </c>
+      <c r="F7" s="1">
         <v>101.4</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>45826</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>45827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>300972</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16980</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>169.8</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45832</v>
       </c>
     </row>
   </sheetData>
@@ -1303,23 +1371,25 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="15.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1341,13 +1411,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>22450</v>
@@ -1356,21 +1429,25 @@
         <v>500</v>
       </c>
       <c r="E2" s="1">
+        <f>C2/D2</f>
+        <v>44.9</v>
+      </c>
+      <c r="F2" s="1">
         <v>-2110.46</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>45813</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>45821</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>21000</v>
@@ -1378,16 +1455,20 @@
       <c r="D3" s="1">
         <v>700</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E20" si="0">C3/D3</f>
+        <v>30</v>
+      </c>
+      <c r="G3" s="2">
         <v>45813</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1">
         <v>20052</v>
@@ -1395,16 +1476,20 @@
       <c r="D4" s="1">
         <v>1200</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>16.71</v>
+      </c>
+      <c r="G4" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>513120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1">
         <v>40565</v>
@@ -1412,16 +1497,20 @@
       <c r="D5" s="1">
         <v>35000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>1.159</v>
+      </c>
+      <c r="G5" s="2">
         <v>45819</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>603323</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>20304</v>
@@ -1429,16 +1518,20 @@
       <c r="D6" s="1">
         <v>3600</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>5.64</v>
+      </c>
+      <c r="G6" s="2">
         <v>45821</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>20382</v>
@@ -1447,21 +1540,25 @@
         <v>4300</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>4.74</v>
+      </c>
+      <c r="F7" s="1">
         <v>22.77</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>45821</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>45825</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
         <v>20190</v>
@@ -1469,16 +1566,20 @@
       <c r="D8" s="1">
         <v>3000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+      <c r="G8" s="2">
         <v>45821</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>512800</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>21593</v>
@@ -1486,16 +1587,20 @@
       <c r="D9" s="1">
         <v>13000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>1.661</v>
+      </c>
+      <c r="G9" s="2">
         <v>45821</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>159869</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>20502</v>
@@ -1503,16 +1608,26 @@
       <c r="D10" s="1">
         <v>17000</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>1.206</v>
+      </c>
+      <c r="F10" s="1">
+        <v>355.13</v>
+      </c>
+      <c r="G10" s="2">
         <v>45821</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" s="2">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>513120</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>20043</v>
@@ -1520,16 +1635,20 @@
       <c r="D11" s="1">
         <v>17000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.179</v>
+      </c>
+      <c r="G11" s="2">
         <v>45824</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>600350</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>20862</v>
@@ -1537,16 +1656,20 @@
       <c r="D12" s="1">
         <v>1900</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>10.98</v>
+      </c>
+      <c r="G12" s="2">
         <v>45824</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>601128</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C13" s="1">
         <v>20385</v>
@@ -1554,16 +1677,20 @@
       <c r="D13" s="1">
         <v>2700</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+      <c r="G13" s="2">
         <v>45825</v>
       </c>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" customFormat="1" spans="1:8">
       <c r="A14" s="1">
         <v>513120</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" s="1">
         <v>20214</v>
@@ -1571,18 +1698,22 @@
       <c r="D14" s="1">
         <v>18000</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.123</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2">
         <v>45825</v>
       </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:7">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="1">
         <v>159869</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>20587</v>
@@ -1590,18 +1721,135 @@
       <c r="D15" s="1">
         <v>17000</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.211</v>
+      </c>
+      <c r="F15" s="1">
+        <v>355.13</v>
+      </c>
+      <c r="G15" s="2">
         <v>45825</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="H15" s="2">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>300308</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>24800</v>
+      </c>
+      <c r="D16" s="1">
+        <v>200</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>159915</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>66511.2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>32100</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>2.072</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>159967</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>66609.4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>150700</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.442</v>
+      </c>
+      <c r="G18" s="2">
+        <v>45833</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:8">
+      <c r="A19" s="1">
+        <v>159967</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1">
+        <v>66555</v>
+      </c>
+      <c r="D19" s="1">
+        <v>147900</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:8">
+      <c r="A20" s="1">
+        <v>159915</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1">
+        <v>67213.3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>31900</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>2.107</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2">
+        <v>45833</v>
+      </c>
+      <c r="H20" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A7:A8 A2:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A4 A7:A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1609,22 +1857,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1646,13 +1897,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>300529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>21980</v>
@@ -1660,16 +1914,20 @@
       <c r="D2" s="1">
         <v>1000</v>
       </c>
-      <c r="F2" s="2">
+      <c r="E2" s="1">
+        <f>C2/D2</f>
+        <v>21.98</v>
+      </c>
+      <c r="G2" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>300529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>21800</v>
@@ -1677,16 +1935,20 @@
       <c r="D3" s="1">
         <v>1000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E17" si="0">C3/D3</f>
+        <v>21.8</v>
+      </c>
+      <c r="G3" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>300896</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>34560</v>
@@ -1694,16 +1956,20 @@
       <c r="D4" s="1">
         <v>200</v>
       </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>172.8</v>
+      </c>
+      <c r="G4" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>603605</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1">
         <v>25440</v>
@@ -1711,16 +1977,20 @@
       <c r="D5" s="1">
         <v>300</v>
       </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>84.8</v>
+      </c>
+      <c r="G5" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>601888</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <v>24592</v>
@@ -1728,16 +1998,20 @@
       <c r="D6" s="1">
         <v>400</v>
       </c>
-      <c r="F6" s="2">
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>61.48</v>
+      </c>
+      <c r="G6" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1">
         <v>24960</v>
@@ -1745,16 +2019,20 @@
       <c r="D7" s="1">
         <v>200</v>
       </c>
-      <c r="F7" s="2">
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>124.8</v>
+      </c>
+      <c r="G7" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>603195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
         <v>20080</v>
@@ -1762,16 +2040,20 @@
       <c r="D8" s="1">
         <v>400</v>
       </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>50.2</v>
+      </c>
+      <c r="G8" s="2">
         <v>45817</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>300760</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1">
         <v>23799</v>
@@ -1779,16 +2061,20 @@
       <c r="D9" s="1">
         <v>100</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>237.99</v>
+      </c>
+      <c r="G9" s="2">
         <v>45819</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>603259</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>26076</v>
@@ -1796,16 +2082,20 @@
       <c r="D10" s="1">
         <v>400</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>65.19</v>
+      </c>
+      <c r="G10" s="2">
         <v>45819</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>21420</v>
@@ -1813,16 +2103,20 @@
       <c r="D11" s="1">
         <v>1200</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>17.85</v>
+      </c>
+      <c r="G11" s="2">
         <v>45819</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:7">
+    <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>21048</v>
@@ -1830,18 +2124,22 @@
       <c r="D12" s="1">
         <v>1200</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>17.54</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="2">
         <v>45824</v>
       </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>21120</v>
@@ -1849,16 +2147,20 @@
       <c r="D13" s="1">
         <v>400</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G13" s="2">
         <v>45827</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>300628</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1">
         <v>21000</v>
@@ -1866,16 +2168,20 @@
       <c r="D14" s="1">
         <v>600</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="2">
         <v>45827</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:7">
+    <row r="15" customFormat="1" spans="1:8">
       <c r="A15" s="1">
         <v>603195</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1">
         <v>23620</v>
@@ -1883,18 +2189,66 @@
       <c r="D15" s="1">
         <v>500</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>47.24</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2">
         <v>45831</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" customFormat="1" spans="1:8">
+      <c r="A16" s="1">
+        <v>300760</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1">
+        <v>22500</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2">
+        <v>45832</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>300573</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20552</v>
+      </c>
+      <c r="D17" s="1">
+        <v>400</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>51.38</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45832</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A7 A11:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A11:A13 A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
     <sheet name="中线" sheetId="2" r:id="rId2"/>
     <sheet name="长线" sheetId="3" r:id="rId3"/>
+    <sheet name="美股" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
   <si>
     <t>代码</t>
   </si>
@@ -140,6 +141,9 @@
   </si>
   <si>
     <t>创成长ETF</t>
+  </si>
+  <si>
+    <t>香港证券ETF</t>
   </si>
   <si>
     <t>健帆生物</t>
@@ -1134,7 +1138,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1337,7 +1341,7 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>300972</v>
       </c>
@@ -1354,8 +1358,14 @@
         <f t="shared" si="0"/>
         <v>169.8</v>
       </c>
+      <c r="F8" s="1">
+        <v>17.49</v>
+      </c>
       <c r="G8" s="2">
         <v>45832</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45835</v>
       </c>
     </row>
   </sheetData>
@@ -1371,10 +1381,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1456,7 +1466,7 @@
         <v>700</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E20" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E21" si="0">C3/D3</f>
         <v>30</v>
       </c>
       <c r="G3" s="2">
@@ -1505,7 +1515,7 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>603323</v>
       </c>
@@ -1522,8 +1532,14 @@
         <f t="shared" si="0"/>
         <v>5.64</v>
       </c>
+      <c r="F6" s="1">
+        <v>771.04</v>
+      </c>
       <c r="G6" s="2">
         <v>45821</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45834</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1574,7 +1590,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>512800</v>
       </c>
@@ -1591,8 +1607,14 @@
         <f t="shared" si="0"/>
         <v>1.661</v>
       </c>
+      <c r="F9" s="1">
+        <v>639.04</v>
+      </c>
       <c r="G9" s="2">
         <v>45821</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45835</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1664,7 +1686,7 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>601128</v>
       </c>
@@ -1681,8 +1703,14 @@
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
+      <c r="F13" s="1">
+        <v>195.29</v>
+      </c>
       <c r="G13" s="2">
         <v>45825</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45834</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:8">
@@ -1756,7 +1784,7 @@
         <v>45833</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>159915</v>
       </c>
@@ -1773,11 +1801,17 @@
         <f t="shared" si="0"/>
         <v>2.072</v>
       </c>
+      <c r="F17" s="1">
+        <v>897.41</v>
+      </c>
       <c r="G17" s="2">
         <v>45833</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>159967</v>
       </c>
@@ -1794,8 +1828,14 @@
         <f t="shared" si="0"/>
         <v>0.442</v>
       </c>
+      <c r="F18" s="1">
+        <v>418.68</v>
+      </c>
       <c r="G18" s="2">
         <v>45833</v>
+      </c>
+      <c r="H18" s="2">
+        <v>45835</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:8">
@@ -1843,13 +1883,34 @@
         <v>45833</v>
       </c>
       <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>513090</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43679.1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>1.843</v>
+      </c>
+      <c r="G21" s="2">
+        <v>45834</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A4 A7:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:A8 A2:A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1860,7 +1921,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1906,7 +1967,7 @@
         <v>300529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>21980</v>
@@ -1927,7 +1988,7 @@
         <v>300529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1">
         <v>21800</v>
@@ -1948,7 +2009,7 @@
         <v>300896</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <v>34560</v>
@@ -1969,7 +2030,7 @@
         <v>603605</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>25440</v>
@@ -1990,7 +2051,7 @@
         <v>601888</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>24592</v>
@@ -2008,10 +2069,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>24960</v>
@@ -2032,7 +2093,7 @@
         <v>603195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1">
         <v>20080</v>
@@ -2053,7 +2114,7 @@
         <v>300760</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1">
         <v>23799</v>
@@ -2074,7 +2135,7 @@
         <v>603259</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C10" s="1">
         <v>26076</v>
@@ -2092,10 +2153,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1">
         <v>21420</v>
@@ -2113,10 +2174,10 @@
     </row>
     <row r="12" customFormat="1" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>21048</v>
@@ -2136,10 +2197,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="1">
         <v>21120</v>
@@ -2160,7 +2221,7 @@
         <v>300628</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>21000</v>
@@ -2181,7 +2242,7 @@
         <v>603195</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>23620</v>
@@ -2193,18 +2254,22 @@
         <f t="shared" si="0"/>
         <v>47.24</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1">
+        <v>241.4</v>
+      </c>
       <c r="G15" s="2">
         <v>45831</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="2">
+        <v>45835</v>
+      </c>
     </row>
     <row r="16" customFormat="1" spans="1:8">
       <c r="A16" s="1">
         <v>300760</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>22500</v>
@@ -2216,18 +2281,22 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1">
+        <v>123.05</v>
+      </c>
       <c r="G16" s="2">
         <v>45832</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="2">
+        <v>45835</v>
+      </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>300573</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>20552</v>
@@ -2248,7 +2317,60 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A11:A13 A7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7 A11:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>代码</t>
   </si>
@@ -50,6 +50,9 @@
     <t>盈亏</t>
   </si>
   <si>
+    <t>收益率</t>
+  </si>
+  <si>
     <t>开仓日期</t>
   </si>
   <si>
@@ -189,17 +192,24 @@
   </si>
   <si>
     <t>兴齐眼药</t>
+  </si>
+  <si>
+    <t>欧派家居</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -804,17 +814,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1135,236 +1172,268 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17" style="10" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="6">
         <v>600798</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
         <v>9870</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>2100</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <f>C2/D2</f>
         <v>4.7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>-1841.19</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
+        <f>F2/C2</f>
+        <v>-0.186544072948328</v>
+      </c>
+      <c r="H2" s="10">
         <v>45797</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="10">
         <v>45800</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
         <v>7977</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>300</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="8">
         <f t="shared" ref="E3:E8" si="0">C3/D3</f>
         <v>26.59</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="7">
         <v>-951.52</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G8" si="1">F3/C3</f>
+        <v>-0.119282938448038</v>
+      </c>
+      <c r="H3" s="10">
         <v>45803</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="10">
         <v>45817</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7">
         <v>25560</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>400</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <f t="shared" si="0"/>
         <v>63.9</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="7">
         <v>153.92</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00602190923317684</v>
+      </c>
+      <c r="H4" s="10">
         <v>45817</v>
       </c>
-      <c r="H4" s="2">
+      <c r="I4" s="10">
         <v>45824</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1">
+      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7">
         <v>10995</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>500</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>21.99</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="7">
         <v>518.29</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0471386994088222</v>
+      </c>
+      <c r="H5" s="10">
         <v>45819</v>
       </c>
-      <c r="H5" s="2">
+      <c r="I5" s="10">
         <v>45824</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:8">
-      <c r="A6" s="1">
+    <row r="6" customFormat="1" spans="1:9">
+      <c r="A6" s="6">
         <v>603322</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
         <v>21200</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <v>500</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="8">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="7">
         <v>278.76</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0131490566037736</v>
+      </c>
+      <c r="H6" s="10">
         <v>45821</v>
       </c>
-      <c r="H6" s="2">
+      <c r="I6" s="10">
         <v>45825</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+    <row r="7" spans="1:9">
+      <c r="A7" s="6">
         <v>300475</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7">
         <v>11073</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="11">
         <v>300</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>36.91</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="7">
         <v>101.4</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00915740991601192</v>
+      </c>
+      <c r="H7" s="10">
         <v>45826</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="10">
         <v>45827</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9">
+      <c r="A8" s="6">
         <v>300972</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7">
         <v>16980</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="11">
         <v>100</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="8">
         <f t="shared" si="0"/>
         <v>169.8</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="7">
         <v>17.49</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00103003533568905</v>
+      </c>
+      <c r="H8" s="10">
         <v>45832</v>
       </c>
-      <c r="H8" s="2">
+      <c r="I8" s="10">
         <v>45835</v>
       </c>
     </row>
@@ -1381,528 +1450,643 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14" style="7" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="7">
         <v>22450</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>500</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <f>C2/D2</f>
         <v>44.9</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="7">
         <v>-2110.46</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
+        <f>F2/C2</f>
+        <v>-0.0940071269487751</v>
+      </c>
+      <c r="H2" s="10">
         <v>45813</v>
       </c>
-      <c r="H2" s="2">
+      <c r="I2" s="10">
         <v>45821</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="7">
         <v>21000</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>700</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E21" si="0">C3/D3</f>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E22" si="0">C3/D3</f>
         <v>30</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G22" si="1">F3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <v>45813</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
         <v>20052</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="11">
         <v>1200</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="8">
         <f t="shared" si="0"/>
         <v>16.71</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
         <v>45817</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
         <v>513120</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
         <v>40565</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="11">
         <v>35000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="8">
         <f t="shared" si="0"/>
         <v>1.159</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
         <v>45819</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
+    <row r="6" spans="1:9">
+      <c r="A6" s="6">
         <v>603323</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20304</v>
+      </c>
+      <c r="D6" s="11">
+        <v>3600</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>5.64</v>
+      </c>
+      <c r="F6" s="7">
+        <v>771.04</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0379747832939322</v>
+      </c>
+      <c r="H6" s="10">
+        <v>45821</v>
+      </c>
+      <c r="I6" s="10">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20382</v>
+      </c>
+      <c r="D7" s="11">
+        <v>4300</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.74</v>
+      </c>
+      <c r="F7" s="7">
+        <v>22.77</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00111716220194289</v>
+      </c>
+      <c r="H7" s="10">
+        <v>45821</v>
+      </c>
+      <c r="I7" s="10">
+        <v>45825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20190</v>
+      </c>
+      <c r="D8" s="11">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="6">
+        <v>512800</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="7">
+        <v>21593</v>
+      </c>
+      <c r="D9" s="11">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>1.661</v>
+      </c>
+      <c r="F9" s="7">
+        <v>639.04</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0295947760848423</v>
+      </c>
+      <c r="H9" s="10">
+        <v>45821</v>
+      </c>
+      <c r="I9" s="10">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="6">
+        <v>159869</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7">
+        <v>20502</v>
+      </c>
+      <c r="D10" s="11">
+        <v>17000</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>1.206</v>
+      </c>
+      <c r="F10" s="7">
+        <v>355.13</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0173217247097844</v>
+      </c>
+      <c r="H10" s="10">
+        <v>45821</v>
+      </c>
+      <c r="I10" s="10">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
+        <v>513120</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="1">
-        <v>20304</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3600</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>5.64</v>
-      </c>
-      <c r="F6" s="1">
-        <v>771.04</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45821</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="C11" s="7">
+        <v>20043</v>
+      </c>
+      <c r="D11" s="11">
+        <v>17000</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>1.179</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="6">
+        <v>600350</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7">
+        <v>20862</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>10.98</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="6">
+        <v>601128</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="7">
+        <v>20385</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2700</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+      <c r="F13" s="7">
+        <v>195.29</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00958008339465293</v>
+      </c>
+      <c r="H13" s="10">
+        <v>45825</v>
+      </c>
+      <c r="I13" s="10">
         <v>45834</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1">
-        <v>20382</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4300</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>4.74</v>
-      </c>
-      <c r="F7" s="1">
-        <v>22.77</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45821</v>
-      </c>
-      <c r="H7" s="2">
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" s="6">
+        <v>513120</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="7">
+        <v>20214</v>
+      </c>
+      <c r="D14" s="11">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.123</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
         <v>45825</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20190</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>6.73</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15" s="6">
+        <v>159869</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="7">
+        <v>20587</v>
+      </c>
+      <c r="D15" s="11">
+        <v>17000</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.211</v>
+      </c>
+      <c r="F15" s="7">
+        <v>355.13</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0172502064409579</v>
+      </c>
+      <c r="H15" s="10">
+        <v>45825</v>
+      </c>
+      <c r="I15" s="10">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="6">
+        <v>300308</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7">
+        <v>24800</v>
+      </c>
+      <c r="D16" s="11">
+        <v>200</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2922.13</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.117827822580645</v>
+      </c>
+      <c r="H16" s="10">
+        <v>45833</v>
+      </c>
+      <c r="I16" s="10">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="6">
+        <v>159915</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="7">
+        <v>66511.2</v>
+      </c>
+      <c r="D17" s="11">
+        <v>32100</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>2.072</v>
+      </c>
+      <c r="F17" s="7">
+        <v>897.41</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0134926147776615</v>
+      </c>
+      <c r="H17" s="10">
+        <v>45833</v>
+      </c>
+      <c r="I17" s="10">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="6">
+        <v>159967</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7">
+        <v>66609.4</v>
+      </c>
+      <c r="D18" s="11">
+        <v>150700</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>0.442</v>
+      </c>
+      <c r="F18" s="7">
+        <v>418.68</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00628559932982432</v>
+      </c>
+      <c r="H18" s="10">
+        <v>45833</v>
+      </c>
+      <c r="I18" s="10">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
+      <c r="A19" s="6">
+        <v>159967</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="7">
+        <v>66555</v>
+      </c>
+      <c r="D19" s="11">
+        <v>147900</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>45833</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
+      <c r="A20" s="6">
+        <v>159915</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7">
+        <v>67213.3</v>
+      </c>
+      <c r="D20" s="11">
+        <v>31900</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>2.107</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>45833</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="6">
+        <v>513090</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7">
+        <v>43679.1</v>
+      </c>
+      <c r="D21" s="11">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.843</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="6">
         <v>512800</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1">
-        <v>21593</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="B22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="7">
+        <v>22165</v>
+      </c>
+      <c r="D22" s="11">
         <v>13000</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>1.661</v>
-      </c>
-      <c r="F9" s="1">
-        <v>639.04</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45821</v>
-      </c>
-      <c r="H9" s="2">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>159869</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20502</v>
-      </c>
-      <c r="D10" s="1">
-        <v>17000</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>1.206</v>
-      </c>
-      <c r="F10" s="1">
-        <v>355.13</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45821</v>
-      </c>
-      <c r="H10" s="2">
-        <v>45832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>513120</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="1">
-        <v>20043</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17000</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.179</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>600350</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1">
-        <v>20862</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1900</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>10.98</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>601128</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1">
-        <v>20385</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2700</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-      <c r="F13" s="1">
-        <v>195.29</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45825</v>
-      </c>
-      <c r="H13" s="2">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:8">
-      <c r="A14" s="1">
-        <v>513120</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="1">
-        <v>20214</v>
-      </c>
-      <c r="D14" s="1">
-        <v>18000</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.123</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2">
-        <v>45825</v>
-      </c>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" customFormat="1" spans="1:8">
-      <c r="A15" s="1">
-        <v>159869</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1">
-        <v>20587</v>
-      </c>
-      <c r="D15" s="1">
-        <v>17000</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>1.211</v>
-      </c>
-      <c r="F15" s="1">
-        <v>355.13</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45825</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>300308</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="1">
-        <v>24800</v>
-      </c>
-      <c r="D16" s="1">
-        <v>200</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45833</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>159915</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="1">
-        <v>66511.2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>32100</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>2.072</v>
-      </c>
-      <c r="F17" s="1">
-        <v>897.41</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45833</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>159967</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1">
-        <v>66609.4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>150700</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>0.442</v>
-      </c>
-      <c r="F18" s="1">
-        <v>418.68</v>
-      </c>
-      <c r="G18" s="2">
-        <v>45833</v>
-      </c>
-      <c r="H18" s="2">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:8">
-      <c r="A19" s="1">
-        <v>159967</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1">
-        <v>66555</v>
-      </c>
-      <c r="D19" s="1">
-        <v>147900</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2">
-        <v>45833</v>
-      </c>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" customFormat="1" spans="1:8">
-      <c r="A20" s="1">
-        <v>159915</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="1">
-        <v>67213.3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>31900</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>2.107</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2">
-        <v>45833</v>
-      </c>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>513090</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="1">
-        <v>43679.1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>23700</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.843</v>
-      </c>
-      <c r="G21" s="2">
-        <v>45834</v>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>1.705</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>45838</v>
       </c>
     </row>
   </sheetData>
@@ -1918,406 +2102,688 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="10" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="I1" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6">
         <v>300529</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="7">
         <v>21980</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="11">
         <v>1000</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="8">
         <f>C2/D2</f>
         <v>21.98</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
+        <f>F2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
         <v>45817</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
+    <row r="3" spans="1:8">
+      <c r="A3" s="6">
         <v>300529</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="7">
         <v>21800</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="11">
         <v>1000</v>
       </c>
-      <c r="E3" s="1">
-        <f t="shared" ref="E3:E17" si="0">C3/D3</f>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E25" si="0">C3/D3</f>
         <v>21.8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
+        <f t="shared" ref="G3:G25" si="1">F3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
         <v>45817</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+    <row r="4" spans="1:8">
+      <c r="A4" s="6">
         <v>300896</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="7">
+        <v>34560</v>
+      </c>
+      <c r="D4" s="11">
+        <v>200</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="0"/>
+        <v>172.8</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6">
+        <v>603605</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="7">
+        <v>25440</v>
+      </c>
+      <c r="D5" s="11">
+        <v>300</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>84.8</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
+        <v>601888</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="7">
+        <v>24592</v>
+      </c>
+      <c r="D6" s="11">
+        <v>400</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>61.48</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="7">
+        <v>24960</v>
+      </c>
+      <c r="D7" s="11">
+        <v>200</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>124.8</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
+        <v>603195</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7">
+        <v>20080</v>
+      </c>
+      <c r="D8" s="11">
+        <v>400</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>50.2</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
+        <v>300760</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7">
+        <v>23799</v>
+      </c>
+      <c r="D9" s="11">
+        <v>100</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>237.99</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
+        <v>603259</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7">
+        <v>26076</v>
+      </c>
+      <c r="D10" s="11">
+        <v>400</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>65.19</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7">
+        <v>21420</v>
+      </c>
+      <c r="D11" s="11">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>17.85</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="7">
+        <v>21048</v>
+      </c>
+      <c r="D12" s="11">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>17.54</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <v>45824</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="7">
+        <v>21120</v>
+      </c>
+      <c r="D13" s="11">
+        <v>400</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6">
+        <v>300628</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="7">
+        <v>21000</v>
+      </c>
+      <c r="D14" s="11">
+        <v>600</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15" s="6">
+        <v>603195</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="7">
+        <v>23620</v>
+      </c>
+      <c r="D15" s="11">
+        <v>500</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>47.24</v>
+      </c>
+      <c r="F15" s="7">
+        <v>241.4</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.0102201524132091</v>
+      </c>
+      <c r="H15" s="10">
+        <v>45831</v>
+      </c>
+      <c r="I15" s="10">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:9">
+      <c r="A16" s="6">
+        <v>300760</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="7">
+        <v>22500</v>
+      </c>
+      <c r="D16" s="11">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F16" s="7">
+        <v>123.05</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.00546888888888889</v>
+      </c>
+      <c r="H16" s="10">
+        <v>45832</v>
+      </c>
+      <c r="I16" s="10">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="6">
+        <v>300573</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="7">
+        <v>20552</v>
+      </c>
+      <c r="D17" s="11">
+        <v>400</v>
+      </c>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>51.38</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
+      <c r="A18" s="6">
+        <v>300760</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>22410</v>
+      </c>
+      <c r="D18" s="11">
+        <v>100</v>
+      </c>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>224.1</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
+      <c r="A19" s="6">
+        <v>603195</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7">
+        <v>23840</v>
+      </c>
+      <c r="D19" s="11">
+        <v>500</v>
+      </c>
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>47.68</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>603833</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="7">
+        <v>22240</v>
+      </c>
+      <c r="D20" s="11">
+        <v>400</v>
+      </c>
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:9">
+      <c r="A21" s="6">
+        <v>300896</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7">
+        <v>34553</v>
+      </c>
+      <c r="D21" s="11">
+        <v>200</v>
+      </c>
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>172.765</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="6">
+        <v>300529</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1">
-        <v>34560</v>
-      </c>
-      <c r="D4" s="1">
-        <v>200</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" si="0"/>
-        <v>172.8</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>603605</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
-        <v>25440</v>
-      </c>
-      <c r="D5" s="1">
-        <v>300</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>84.8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>601888</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1">
-        <v>24592</v>
-      </c>
-      <c r="D6" s="1">
-        <v>400</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>61.48</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="1">
-        <v>24960</v>
-      </c>
-      <c r="D7" s="1">
-        <v>200</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>124.8</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>603195</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="1">
-        <v>20080</v>
-      </c>
-      <c r="D8" s="1">
-        <v>400</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>50.2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>300760</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1">
-        <v>23799</v>
-      </c>
-      <c r="D9" s="1">
-        <v>100</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>237.99</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>603259</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1">
-        <v>26076</v>
-      </c>
-      <c r="D10" s="1">
-        <v>400</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>65.19</v>
-      </c>
-      <c r="G10" s="2">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="1" t="s">
+      <c r="C22" s="7">
+        <v>21550</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" s="6">
+        <v>300573</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="7">
+        <v>41384</v>
+      </c>
+      <c r="D23" s="11">
+        <v>800</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>51.73</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:9">
+      <c r="A24" s="6">
+        <v>300628</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="7">
+        <v>20850</v>
+      </c>
+      <c r="D24" s="11">
+        <v>600</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>34.75</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="1">
-        <v>21420</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B25" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="7">
+        <v>20244</v>
+      </c>
+      <c r="D25" s="11">
         <v>1200</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>17.85</v>
-      </c>
-      <c r="G11" s="2">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="1">
-        <v>21048</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>17.54</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2">
-        <v>45824</v>
-      </c>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="1">
-        <v>21120</v>
-      </c>
-      <c r="D13" s="1">
-        <v>400</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
-      </c>
-      <c r="G13" s="2">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>300628</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="1">
-        <v>21000</v>
-      </c>
-      <c r="D14" s="1">
-        <v>600</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:8">
-      <c r="A15" s="1">
-        <v>603195</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="1">
-        <v>23620</v>
-      </c>
-      <c r="D15" s="1">
-        <v>500</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>47.24</v>
-      </c>
-      <c r="F15" s="1">
-        <v>241.4</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45831</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:8">
-      <c r="A16" s="1">
-        <v>300760</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1">
-        <v>22500</v>
-      </c>
-      <c r="D16" s="1">
-        <v>100</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="F16" s="1">
-        <v>123.05</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45832</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>300573</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="1">
-        <v>20552</v>
-      </c>
-      <c r="D17" s="1">
-        <v>400</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>51.38</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45832</v>
-      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>16.87</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <v>45838</v>
+      </c>
+      <c r="I25" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A7 A11:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A25 A7 A11:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2325,48 +2791,52 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H$1:I$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="1" max="1" width="12" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -1174,7 +1174,7 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1452,8 +1452,8 @@
   <sheetPr/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2002,15 +2002,19 @@
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7">
+        <v>123.91</v>
+      </c>
       <c r="G19" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00186176846217414</v>
       </c>
       <c r="H19" s="10">
         <v>45833</v>
       </c>
-      <c r="I19" s="10"/>
+      <c r="I19" s="10">
+        <v>45838</v>
+      </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="6">
@@ -2094,7 +2098,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A7:A8 A2:A4" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:A4 A7:A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2783,7 +2787,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A25 A7 A11:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A11:A13 A7 A25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -1453,7 +1453,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1529,7 +1529,7 @@
         <v>45821</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
         <v>21</v>
       </c>
@@ -1546,12 +1546,18 @@
         <f t="shared" ref="E3:E22" si="0">C3/D3</f>
         <v>30</v>
       </c>
+      <c r="F3" s="7">
+        <v>1672.42</v>
+      </c>
       <c r="G3" s="9">
         <f t="shared" ref="G3:G22" si="1">F3/C3</f>
-        <v>0</v>
+        <v>0.0796390476190476</v>
       </c>
       <c r="H3" s="10">
         <v>45813</v>
+      </c>
+      <c r="I3" s="10">
+        <v>45839</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2033,15 +2039,19 @@
         <f t="shared" si="0"/>
         <v>2.107</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7">
+        <v>390</v>
+      </c>
       <c r="G20" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00580242303234628</v>
       </c>
       <c r="H20" s="10">
         <v>45833</v>
       </c>
-      <c r="I20" s="10"/>
+      <c r="I20" s="10">
+        <v>45839</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="6">

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
   <si>
     <t>代码</t>
   </si>
@@ -89,6 +89,18 @@
     <t>万辰集团</t>
   </si>
   <si>
+    <t>001269</t>
+  </si>
+  <si>
+    <t>欧晶科技</t>
+  </si>
+  <si>
+    <t>600537</t>
+  </si>
+  <si>
+    <t>亿晶光电</t>
+  </si>
+  <si>
     <t>001317</t>
   </si>
   <si>
@@ -147,6 +159,12 @@
   </si>
   <si>
     <t>香港证券ETF</t>
+  </si>
+  <si>
+    <t>600901</t>
+  </si>
+  <si>
+    <t>江苏金租</t>
   </si>
   <si>
     <t>健帆生物</t>
@@ -1172,13 +1190,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
@@ -1265,14 +1283,14 @@
         <v>300</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E8" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E10" si="0">C3/D3</f>
         <v>26.59</v>
       </c>
       <c r="F3" s="7">
         <v>-951.52</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G8" si="1">F3/C3</f>
+        <f t="shared" ref="G3:G10" si="1">F3/C3</f>
         <v>-0.119282938448038</v>
       </c>
       <c r="H3" s="10">
@@ -1435,6 +1453,56 @@
       </c>
       <c r="I8" s="10">
         <v>45835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="7">
+        <v>8850</v>
+      </c>
+      <c r="D9" s="11">
+        <v>300</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>29.5</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7">
+        <v>9686</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>3.34</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>45841</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1510,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A5 A9:A10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1450,10 +1518,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1500,10 +1568,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7">
         <v>22450</v>
@@ -1531,10 +1599,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="12" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7">
         <v>21000</v>
@@ -1543,14 +1611,14 @@
         <v>700</v>
       </c>
       <c r="E3" s="8">
-        <f t="shared" ref="E3:E22" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E24" si="0">C3/D3</f>
         <v>30</v>
       </c>
       <c r="F3" s="7">
         <v>1672.42</v>
       </c>
       <c r="G3" s="9">
-        <f t="shared" ref="G3:G22" si="1">F3/C3</f>
+        <f t="shared" ref="G3:G24" si="1">F3/C3</f>
         <v>0.0796390476190476</v>
       </c>
       <c r="H3" s="10">
@@ -1562,10 +1630,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="7">
         <v>20052</v>
@@ -1590,7 +1658,7 @@
         <v>513120</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C5" s="7">
         <v>40565</v>
@@ -1615,7 +1683,7 @@
         <v>603323</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>20304</v>
@@ -1643,10 +1711,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="7">
         <v>20382</v>
@@ -1674,10 +1742,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="12" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
         <v>20190</v>
@@ -1702,7 +1770,7 @@
         <v>512800</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7">
         <v>21593</v>
@@ -1733,7 +1801,7 @@
         <v>159869</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7">
         <v>20502</v>
@@ -1764,7 +1832,7 @@
         <v>513120</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7">
         <v>20043</v>
@@ -1789,7 +1857,7 @@
         <v>600350</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="7">
         <v>20862</v>
@@ -1814,7 +1882,7 @@
         <v>601128</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C13" s="7">
         <v>20385</v>
@@ -1845,7 +1913,7 @@
         <v>513120</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C14" s="7">
         <v>20214</v>
@@ -1857,22 +1925,26 @@
         <f t="shared" si="0"/>
         <v>1.123</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7">
+        <v>1034</v>
+      </c>
       <c r="G14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.051152666468784</v>
       </c>
       <c r="H14" s="10">
         <v>45825</v>
       </c>
-      <c r="I14" s="10"/>
+      <c r="I14" s="10">
+        <v>45841</v>
+      </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
       <c r="A15" s="6">
         <v>159869</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C15" s="7">
         <v>20587</v>
@@ -1903,7 +1975,7 @@
         <v>300308</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C16" s="7">
         <v>24800</v>
@@ -1934,7 +2006,7 @@
         <v>159915</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
         <v>66511.2</v>
@@ -1965,7 +2037,7 @@
         <v>159967</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C18" s="7">
         <v>66609.4</v>
@@ -1996,7 +2068,7 @@
         <v>159967</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C19" s="7">
         <v>66555</v>
@@ -2027,7 +2099,7 @@
         <v>159915</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C20" s="7">
         <v>67213.3</v>
@@ -2053,12 +2125,12 @@
         <v>45839</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:9">
       <c r="A21" s="6">
         <v>513090</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C21" s="7">
         <v>43679.1</v>
@@ -2070,12 +2142,18 @@
         <f t="shared" si="0"/>
         <v>1.843</v>
       </c>
+      <c r="F21" s="7">
+        <v>144.02</v>
+      </c>
       <c r="G21" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00329722910957414</v>
       </c>
       <c r="H21" s="10">
         <v>45834</v>
+      </c>
+      <c r="I21" s="10">
+        <v>45841</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2083,7 +2161,7 @@
         <v>512800</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C22" s="7">
         <v>22165</v>
@@ -2101,6 +2179,58 @@
       </c>
       <c r="H22" s="10">
         <v>45838</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" s="6">
+        <v>600350</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="7">
+        <v>20900</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>10.45</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <v>45841</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="7">
+        <v>20352</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>6.36</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <v>45841</v>
       </c>
     </row>
   </sheetData>
@@ -2108,7 +2238,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A2:A4 A7:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:A8 A2:A4 A24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2169,7 +2299,7 @@
         <v>300529</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7">
         <v>21980</v>
@@ -2194,7 +2324,7 @@
         <v>300529</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C3" s="7">
         <v>21800</v>
@@ -2219,7 +2349,7 @@
         <v>300896</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C4" s="7">
         <v>34560</v>
@@ -2244,7 +2374,7 @@
         <v>603605</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5" s="7">
         <v>25440</v>
@@ -2269,7 +2399,7 @@
         <v>601888</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7">
         <v>24592</v>
@@ -2291,10 +2421,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="12" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C7" s="7">
         <v>24960</v>
@@ -2319,7 +2449,7 @@
         <v>603195</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C8" s="7">
         <v>20080</v>
@@ -2344,7 +2474,7 @@
         <v>300760</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C9" s="7">
         <v>23799</v>
@@ -2369,7 +2499,7 @@
         <v>603259</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C10" s="7">
         <v>26076</v>
@@ -2391,10 +2521,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>21420</v>
@@ -2416,10 +2546,10 @@
     </row>
     <row r="12" customFormat="1" spans="1:9">
       <c r="A12" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C12" s="7">
         <v>21048</v>
@@ -2443,10 +2573,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="12" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7">
         <v>21120</v>
@@ -2471,7 +2601,7 @@
         <v>300628</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7">
         <v>21000</v>
@@ -2496,7 +2626,7 @@
         <v>603195</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C15" s="7">
         <v>23620</v>
@@ -2527,7 +2657,7 @@
         <v>300760</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C16" s="7">
         <v>22500</v>
@@ -2558,7 +2688,7 @@
         <v>300573</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C17" s="7">
         <v>20552</v>
@@ -2583,7 +2713,7 @@
         <v>300760</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="7">
         <v>22410</v>
@@ -2610,7 +2740,7 @@
         <v>603195</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C19" s="7">
         <v>23840</v>
@@ -2637,7 +2767,7 @@
         <v>603833</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7">
         <v>22240</v>
@@ -2662,7 +2792,7 @@
         <v>300896</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C21" s="7">
         <v>34553</v>
@@ -2689,7 +2819,7 @@
         <v>300529</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C22" s="7">
         <v>21550</v>
@@ -2716,7 +2846,7 @@
         <v>300573</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>41384</v>
@@ -2743,7 +2873,7 @@
         <v>300628</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7">
         <v>20850</v>
@@ -2767,10 +2897,10 @@
     </row>
     <row r="25" customFormat="1" spans="1:9">
       <c r="A25" s="12" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C25" s="7">
         <v>20244</v>
@@ -2797,7 +2927,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A11:A13 A7 A25" numberStoredAsText="1"/>
+    <ignoredError sqref="A25 A7 A11:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t>代码</t>
   </si>
@@ -101,6 +101,18 @@
     <t>亿晶光电</t>
   </si>
   <si>
+    <t>600876</t>
+  </si>
+  <si>
+    <t>凯盛新能</t>
+  </si>
+  <si>
+    <t>002623</t>
+  </si>
+  <si>
+    <t>亚玛顿</t>
+  </si>
+  <si>
     <t>001317</t>
   </si>
   <si>
@@ -167,6 +179,12 @@
     <t>江苏金租</t>
   </si>
   <si>
+    <t>603129</t>
+  </si>
+  <si>
+    <t>春风动力</t>
+  </si>
+  <si>
     <t>健帆生物</t>
   </si>
   <si>
@@ -213,6 +231,15 @@
   </si>
   <si>
     <t>欧派家居</t>
+  </si>
+  <si>
+    <t>605305</t>
+  </si>
+  <si>
+    <t>中际联合</t>
+  </si>
+  <si>
+    <t>MINT</t>
   </si>
 </sst>
 </file>
@@ -832,24 +859,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -931,13 +961,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,319 +1213,423 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11" style="6" customWidth="1"/>
-    <col min="2" max="2" width="20" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20" style="7" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>600798</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>9870</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>2100</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <f>C2/D2</f>
         <v>4.7</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>-1841.19</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <f>F2/C2</f>
         <v>-0.186544072948328</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>45797</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>45800</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>7977</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>300</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E10" si="0">C3/D3</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E14" si="0">C3/D3</f>
         <v>26.59</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>-951.52</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G10" si="1">F3/C3</f>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G14" si="1">F3/C3</f>
         <v>-0.119282938448038</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>45803</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>25560</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>400</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>63.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>153.92</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="10">
         <f t="shared" si="1"/>
         <v>0.00602190923317684</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="11">
         <v>45817</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="11">
         <v>45824</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>10995</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>500</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>21.99</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>518.29</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="10">
         <f t="shared" si="1"/>
         <v>0.0471386994088222</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="11">
         <v>45819</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="11">
         <v>45824</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>603322</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>21200</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>500</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>278.76</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>0.0131490566037736</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>45821</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>45825</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>300475</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>11073</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>300</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>36.91</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>101.4</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>0.00915740991601192</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>45826</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>45827</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>300972</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>16980</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="12">
         <v>100</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>169.8</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>17.49</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>0.00103003533568905</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>45832</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="11">
         <v>45835</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>8850</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="12">
         <v>300</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="G9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
         <v>45841</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="8">
         <v>9686</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="12">
         <v>2900</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>3.34</v>
       </c>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
         <v>45841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="8">
+        <v>8449</v>
+      </c>
+      <c r="D11" s="12">
+        <v>700</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>12.07</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>45842</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8">
+        <v>8412</v>
+      </c>
+      <c r="D12" s="12">
+        <v>300</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>28.04</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>45842</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="8">
+        <v>10010</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2600</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>3.85</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>45842</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8">
+        <v>10385</v>
+      </c>
+      <c r="D14" s="12">
+        <v>500</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>20.77</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>45842</v>
       </c>
     </row>
   </sheetData>
@@ -1510,7 +1637,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:A5 A9:A10" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A5 A9:A14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1518,727 +1645,754 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14" style="8" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="A2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8">
         <v>22450</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>500</v>
       </c>
-      <c r="E2" s="8">
-        <f>C2/D2</f>
+      <c r="E2" s="9">
+        <f t="shared" ref="E2:E25" si="0">C2/D2</f>
         <v>44.9</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>-2110.46</v>
       </c>
-      <c r="G2" s="9">
-        <f>F2/C2</f>
+      <c r="G2" s="10">
+        <f t="shared" ref="G2:G25" si="1">F2/C2</f>
         <v>-0.0940071269487751</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>45813</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="11">
         <v>45821</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="A3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="8">
         <v>21000</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>700</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E24" si="0">C3/D3</f>
+      <c r="E3" s="9">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>1672.42</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G24" si="1">F3/C3</f>
+      <c r="G3" s="10">
+        <f t="shared" si="1"/>
         <v>0.0796390476190476</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="11">
         <v>45813</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="11">
         <v>45839</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="8">
         <v>20052</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>1200</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>16.71</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>513120</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="8">
         <v>40565</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>35000</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>1.159</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
         <v>45819</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>603323</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="8">
         <v>20304</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>3600</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>5.64</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>771.04</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="10">
         <f t="shared" si="1"/>
         <v>0.0379747832939322</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="11">
         <v>45821</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="11">
         <v>45834</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8">
         <v>20382</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>4300</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>22.77</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="10">
         <f t="shared" si="1"/>
         <v>0.00111716220194289</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="11">
         <v>45821</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="11">
         <v>45825</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="8">
+        <v>20190</v>
+      </c>
+      <c r="D8" s="12">
+        <v>3000</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45821</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7">
+        <v>512800</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21593</v>
+      </c>
+      <c r="D9" s="12">
+        <v>13000</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>1.661</v>
+      </c>
+      <c r="F9" s="8">
+        <v>639.04</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0.0295947760848423</v>
+      </c>
+      <c r="H9" s="11">
+        <v>45821</v>
+      </c>
+      <c r="I9" s="11">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7">
+        <v>159869</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20502</v>
+      </c>
+      <c r="D10" s="12">
+        <v>17000</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>1.206</v>
+      </c>
+      <c r="F10" s="8">
+        <v>355.13</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>0.0173217247097844</v>
+      </c>
+      <c r="H10" s="11">
+        <v>45821</v>
+      </c>
+      <c r="I10" s="11">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>513120</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7">
-        <v>20190</v>
-      </c>
-      <c r="D8" s="11">
-        <v>3000</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>6.73</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>45821</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="6">
+      <c r="C11" s="8">
+        <v>20043</v>
+      </c>
+      <c r="D11" s="12">
+        <v>17000</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>1.179</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>600350</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="8">
+        <v>20862</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1900</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>10.98</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>45824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7">
+        <v>601128</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20385</v>
+      </c>
+      <c r="D13" s="12">
+        <v>2700</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>7.55</v>
+      </c>
+      <c r="F13" s="8">
+        <v>195.29</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.00958008339465293</v>
+      </c>
+      <c r="H13" s="11">
+        <v>45825</v>
+      </c>
+      <c r="I13" s="11">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:9">
+      <c r="A14" s="7">
+        <v>513120</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="8">
+        <v>20214</v>
+      </c>
+      <c r="D14" s="12">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>1.123</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1034</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>0.051152666468784</v>
+      </c>
+      <c r="H14" s="11">
+        <v>45825</v>
+      </c>
+      <c r="I14" s="11">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15" s="7">
+        <v>159869</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="8">
+        <v>20587</v>
+      </c>
+      <c r="D15" s="12">
+        <v>17000</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>1.211</v>
+      </c>
+      <c r="F15" s="8">
+        <v>355.13</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.0172502064409579</v>
+      </c>
+      <c r="H15" s="11">
+        <v>45825</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7">
+        <v>300308</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8">
+        <v>24800</v>
+      </c>
+      <c r="D16" s="12">
+        <v>200</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2922.13</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.117827822580645</v>
+      </c>
+      <c r="H16" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="7">
+        <v>159915</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8">
+        <v>66511.2</v>
+      </c>
+      <c r="D17" s="12">
+        <v>32100</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>2.072</v>
+      </c>
+      <c r="F17" s="8">
+        <v>897.41</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>0.0134926147776615</v>
+      </c>
+      <c r="H17" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I17" s="11">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="7">
+        <v>159967</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="8">
+        <v>66609.4</v>
+      </c>
+      <c r="D18" s="12">
+        <v>150700</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.442</v>
+      </c>
+      <c r="F18" s="8">
+        <v>418.68</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>0.00628559932982432</v>
+      </c>
+      <c r="H18" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I18" s="11">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
+      <c r="A19" s="7">
+        <v>159967</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="8">
+        <v>66555</v>
+      </c>
+      <c r="D19" s="12">
+        <v>147900</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="F19" s="8">
+        <v>123.91</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>0.00186176846217414</v>
+      </c>
+      <c r="H19" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I19" s="11">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="20" customFormat="1" spans="1:9">
+      <c r="A20" s="7">
+        <v>159915</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="8">
+        <v>67213.3</v>
+      </c>
+      <c r="D20" s="12">
+        <v>31900</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>2.107</v>
+      </c>
+      <c r="F20" s="8">
+        <v>390</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>0.00580242303234628</v>
+      </c>
+      <c r="H20" s="11">
+        <v>45833</v>
+      </c>
+      <c r="I20" s="11">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="7">
+        <v>513090</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="8">
+        <v>43679.1</v>
+      </c>
+      <c r="D21" s="12">
+        <v>23700</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>1.843</v>
+      </c>
+      <c r="F21" s="8">
+        <v>144.02</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="1"/>
+        <v>0.00329722910957414</v>
+      </c>
+      <c r="H21" s="11">
+        <v>45834</v>
+      </c>
+      <c r="I21" s="11">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
         <v>512800</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7">
-        <v>21593</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8">
+        <v>22165</v>
+      </c>
+      <c r="D22" s="12">
         <v>13000</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>1.661</v>
-      </c>
-      <c r="F9" s="7">
-        <v>639.04</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="1"/>
-        <v>0.0295947760848423</v>
-      </c>
-      <c r="H9" s="10">
-        <v>45821</v>
-      </c>
-      <c r="I9" s="10">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="6">
-        <v>159869</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7">
-        <v>20502</v>
-      </c>
-      <c r="D10" s="11">
-        <v>17000</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>1.206</v>
-      </c>
-      <c r="F10" s="7">
-        <v>355.13</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>0.0173217247097844</v>
-      </c>
-      <c r="H10" s="10">
-        <v>45821</v>
-      </c>
-      <c r="I10" s="10">
-        <v>45832</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6">
-        <v>513120</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7">
-        <v>20043</v>
-      </c>
-      <c r="D11" s="11">
-        <v>17000</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>1.179</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="6">
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>1.705</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" s="7">
         <v>600350</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="7">
-        <v>20862</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1900</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>10.98</v>
-      </c>
-      <c r="G12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="6">
-        <v>601128</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="7">
-        <v>20385</v>
-      </c>
-      <c r="D13" s="11">
-        <v>2700</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>7.55</v>
-      </c>
-      <c r="F13" s="7">
-        <v>195.29</v>
-      </c>
-      <c r="G13" s="9">
-        <f t="shared" si="1"/>
-        <v>0.00958008339465293</v>
-      </c>
-      <c r="H13" s="10">
-        <v>45825</v>
-      </c>
-      <c r="I13" s="10">
-        <v>45834</v>
-      </c>
-    </row>
-    <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" s="6">
-        <v>513120</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7">
-        <v>20214</v>
-      </c>
-      <c r="D14" s="11">
-        <v>18000</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>1.123</v>
-      </c>
-      <c r="F14" s="7">
-        <v>1034</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="1"/>
-        <v>0.051152666468784</v>
-      </c>
-      <c r="H14" s="10">
-        <v>45825</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="8">
+        <v>20900</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>10.45</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
         <v>45841</v>
       </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" s="6">
-        <v>159869</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7">
-        <v>20587</v>
-      </c>
-      <c r="D15" s="11">
-        <v>17000</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>1.211</v>
-      </c>
-      <c r="F15" s="7">
-        <v>355.13</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.0172502064409579</v>
-      </c>
-      <c r="H15" s="10">
-        <v>45825</v>
-      </c>
-      <c r="I15" s="10">
-        <v>45832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6">
-        <v>300308</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="7">
-        <v>24800</v>
-      </c>
-      <c r="D16" s="11">
-        <v>200</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>124</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2922.13</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.117827822580645</v>
-      </c>
-      <c r="H16" s="10">
-        <v>45833</v>
-      </c>
-      <c r="I16" s="10">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6">
-        <v>159915</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="7">
-        <v>66511.2</v>
-      </c>
-      <c r="D17" s="11">
-        <v>32100</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>2.072</v>
-      </c>
-      <c r="F17" s="7">
-        <v>897.41</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="1"/>
-        <v>0.0134926147776615</v>
-      </c>
-      <c r="H17" s="10">
-        <v>45833</v>
-      </c>
-      <c r="I17" s="10">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6">
-        <v>159967</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="7">
-        <v>66609.4</v>
-      </c>
-      <c r="D18" s="11">
-        <v>150700</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>0.442</v>
-      </c>
-      <c r="F18" s="7">
-        <v>418.68</v>
-      </c>
-      <c r="G18" s="9">
-        <f t="shared" si="1"/>
-        <v>0.00628559932982432</v>
-      </c>
-      <c r="H18" s="10">
-        <v>45833</v>
-      </c>
-      <c r="I18" s="10">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:9">
-      <c r="A19" s="6">
-        <v>159967</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="7">
-        <v>66555</v>
-      </c>
-      <c r="D19" s="11">
-        <v>147900</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
-        <v>0.45</v>
-      </c>
-      <c r="F19" s="7">
-        <v>123.91</v>
-      </c>
-      <c r="G19" s="9">
-        <f t="shared" si="1"/>
-        <v>0.00186176846217414</v>
-      </c>
-      <c r="H19" s="10">
-        <v>45833</v>
-      </c>
-      <c r="I19" s="10">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:9">
-      <c r="A20" s="6">
-        <v>159915</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="7">
-        <v>67213.3</v>
-      </c>
-      <c r="D20" s="11">
-        <v>31900</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
-        <v>2.107</v>
-      </c>
-      <c r="F20" s="7">
-        <v>390</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="1"/>
-        <v>0.00580242303234628</v>
-      </c>
-      <c r="H20" s="10">
-        <v>45833</v>
-      </c>
-      <c r="I20" s="10">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>513090</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="7">
-        <v>43679.1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>23700</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
-        <v>1.843</v>
-      </c>
-      <c r="F21" s="7">
-        <v>144.02</v>
-      </c>
-      <c r="G21" s="9">
-        <f t="shared" si="1"/>
-        <v>0.00329722910957414</v>
-      </c>
-      <c r="H21" s="10">
-        <v>45834</v>
-      </c>
-      <c r="I21" s="10">
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8">
+        <v>20352</v>
+      </c>
+      <c r="D24" s="12">
+        <v>3200</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>6.36</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
         <v>45841</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6">
-        <v>512800</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="7">
-        <v>22165</v>
-      </c>
-      <c r="D22" s="11">
-        <v>13000</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>1.705</v>
-      </c>
-      <c r="G22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="6">
-        <v>600350</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7">
-        <v>20900</v>
-      </c>
-      <c r="D23" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>10.45</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>45841</v>
-      </c>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="7">
-        <v>20352</v>
-      </c>
-      <c r="D24" s="11">
-        <v>3200</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
-        <v>6.36</v>
-      </c>
-      <c r="G24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>45841</v>
-      </c>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="8">
+        <v>23000</v>
+      </c>
+      <c r="D25" s="12">
+        <v>100</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>45845</v>
+      </c>
+      <c r="I25" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A7:A8 A2:A4 A24" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:A8 A2:A4 A24:A25" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2246,688 +2400,740 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>300529</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="8">
         <v>21980</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="12">
         <v>1000</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="9">
         <f>C2/D2</f>
         <v>21.98</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="10">
         <f>F2/C2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>300529</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="B3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="8">
         <v>21800</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="12">
         <v>1000</v>
       </c>
-      <c r="E3" s="8">
-        <f t="shared" ref="E3:E25" si="0">C3/D3</f>
+      <c r="E3" s="9">
+        <f t="shared" ref="E3:E26" si="0">C3/D3</f>
         <v>21.8</v>
       </c>
-      <c r="G3" s="9">
-        <f t="shared" ref="G3:G25" si="1">F3/C3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G26" si="1">F3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>300896</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="7">
+      <c r="B4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8">
         <v>34560</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="12">
         <v>200</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="9">
         <f t="shared" si="0"/>
         <v>172.8</v>
       </c>
-      <c r="G4" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10">
+      <c r="G4" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>603605</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="8">
         <v>25440</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>300</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>84.8</v>
       </c>
-      <c r="G5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>601888</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="7">
+      <c r="B6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8">
         <v>24592</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="12">
         <v>400</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>61.48</v>
       </c>
-      <c r="G6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="7">
+      <c r="A7" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="8">
         <v>24960</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="12">
         <v>200</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>124.8</v>
       </c>
-      <c r="G7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="10">
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
         <v>45817</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>603195</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8">
+        <v>20080</v>
+      </c>
+      <c r="D8" s="12">
+        <v>400</v>
+      </c>
+      <c r="E8" s="9">
+        <f t="shared" si="0"/>
+        <v>50.2</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>45817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>300760</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="8">
+        <v>23799</v>
+      </c>
+      <c r="D9" s="12">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9">
+        <f t="shared" si="0"/>
+        <v>237.99</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>603259</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8">
+        <v>26076</v>
+      </c>
+      <c r="D10" s="12">
+        <v>400</v>
+      </c>
+      <c r="E10" s="9">
+        <f t="shared" si="0"/>
+        <v>65.19</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="8">
+        <v>21420</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E11" s="9">
+        <f t="shared" si="0"/>
+        <v>17.85</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="8">
+        <v>21048</v>
+      </c>
+      <c r="D12" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="9">
+        <f t="shared" si="0"/>
+        <v>17.54</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>45824</v>
+      </c>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="8">
+        <v>21120</v>
+      </c>
+      <c r="D13" s="12">
+        <v>400</v>
+      </c>
+      <c r="E13" s="9">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>300628</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8">
+        <v>21000</v>
+      </c>
+      <c r="D14" s="12">
+        <v>600</v>
+      </c>
+      <c r="E14" s="9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11">
+        <v>45827</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:9">
+      <c r="A15" s="7">
+        <v>603195</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="8">
+        <v>23620</v>
+      </c>
+      <c r="D15" s="12">
+        <v>500</v>
+      </c>
+      <c r="E15" s="9">
+        <f t="shared" si="0"/>
+        <v>47.24</v>
+      </c>
+      <c r="F15" s="8">
+        <v>241.4</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="1"/>
+        <v>0.0102201524132091</v>
+      </c>
+      <c r="H15" s="11">
+        <v>45831</v>
+      </c>
+      <c r="I15" s="11">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:9">
+      <c r="A16" s="7">
+        <v>300760</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="8">
+        <v>22500</v>
+      </c>
+      <c r="D16" s="12">
+        <v>100</v>
+      </c>
+      <c r="E16" s="9">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="F16" s="8">
+        <v>123.05</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>0.00546888888888889</v>
+      </c>
+      <c r="H16" s="11">
+        <v>45832</v>
+      </c>
+      <c r="I16" s="11">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>300573</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="8">
+        <v>20552</v>
+      </c>
+      <c r="D17" s="12">
+        <v>400</v>
+      </c>
+      <c r="E17" s="9">
+        <f t="shared" si="0"/>
+        <v>51.38</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:9">
+      <c r="A18" s="7">
+        <v>300760</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="8">
+        <v>22410</v>
+      </c>
+      <c r="D18" s="12">
+        <v>100</v>
+      </c>
+      <c r="E18" s="9">
+        <f t="shared" si="0"/>
+        <v>224.1</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" customFormat="1" spans="1:9">
+      <c r="A19" s="7">
+        <v>603195</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="8">
+        <v>23840</v>
+      </c>
+      <c r="D19" s="12">
+        <v>500</v>
+      </c>
+      <c r="E19" s="9">
+        <f t="shared" si="0"/>
+        <v>47.68</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="7">
+        <v>603833</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8">
+        <v>22240</v>
+      </c>
+      <c r="D20" s="12">
+        <v>400</v>
+      </c>
+      <c r="E20" s="9">
+        <f t="shared" si="0"/>
+        <v>55.6</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>45838</v>
+      </c>
+    </row>
+    <row r="21" customFormat="1" spans="1:9">
+      <c r="A21" s="7">
+        <v>300896</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="8">
+        <v>34553</v>
+      </c>
+      <c r="D21" s="12">
+        <v>200</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>172.765</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="7">
+        <v>300529</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="7">
-        <v>20080</v>
-      </c>
-      <c r="D8" s="11">
-        <v>400</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>50.2</v>
-      </c>
-      <c r="G8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
+      <c r="C22" s="8">
+        <v>21550</v>
+      </c>
+      <c r="D22" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="0"/>
+        <v>21.55</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:9">
+      <c r="A23" s="7">
+        <v>300573</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="8">
+        <v>41384</v>
+      </c>
+      <c r="D23" s="12">
+        <v>800</v>
+      </c>
+      <c r="E23" s="9">
+        <f t="shared" si="0"/>
+        <v>51.73</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" customFormat="1" spans="1:9">
+      <c r="A24" s="7">
+        <v>300628</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="8">
+        <v>20850</v>
+      </c>
+      <c r="D24" s="12">
+        <v>600</v>
+      </c>
+      <c r="E24" s="9">
+        <f t="shared" si="0"/>
+        <v>34.75</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" customFormat="1" spans="1:9">
+      <c r="A25" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8">
+        <v>20244</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1200</v>
+      </c>
+      <c r="E25" s="9">
+        <f t="shared" si="0"/>
+        <v>16.87</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="11">
+        <v>45838</v>
+      </c>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" customFormat="1" spans="1:9">
+      <c r="A26" s="7">
         <v>300760</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="7">
-        <v>23799</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="8">
+        <v>22091</v>
+      </c>
+      <c r="D26" s="12">
         <v>100</v>
       </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>237.99</v>
-      </c>
-      <c r="G9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6">
-        <v>603259</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="7">
-        <v>26076</v>
-      </c>
-      <c r="D10" s="11">
-        <v>400</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>65.19</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="7">
-        <v>21420</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1200</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>17.85</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10">
-        <v>45819</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:9">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="7">
-        <v>21048</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1200</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>17.54</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10">
-        <v>45824</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="7">
-        <v>21120</v>
-      </c>
-      <c r="D13" s="11">
-        <v>400</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
-      </c>
-      <c r="G13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="10">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="6">
-        <v>300628</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="7">
-        <v>21000</v>
-      </c>
-      <c r="D14" s="11">
-        <v>600</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" s="6">
-        <v>603195</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7">
-        <v>23620</v>
-      </c>
-      <c r="D15" s="11">
-        <v>500</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>47.24</v>
-      </c>
-      <c r="F15" s="7">
-        <v>241.4</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="1"/>
-        <v>0.0102201524132091</v>
-      </c>
-      <c r="H15" s="10">
-        <v>45831</v>
-      </c>
-      <c r="I15" s="10">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:9">
-      <c r="A16" s="6">
-        <v>300760</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="7">
-        <v>22500</v>
-      </c>
-      <c r="D16" s="11">
-        <v>100</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="F16" s="7">
-        <v>123.05</v>
-      </c>
-      <c r="G16" s="9">
-        <f t="shared" si="1"/>
-        <v>0.00546888888888889</v>
-      </c>
-      <c r="H16" s="10">
-        <v>45832</v>
-      </c>
-      <c r="I16" s="10">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="6">
-        <v>300573</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="7">
-        <v>20552</v>
-      </c>
-      <c r="D17" s="11">
-        <v>400</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="0"/>
-        <v>51.38</v>
-      </c>
-      <c r="G17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10">
-        <v>45832</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:9">
-      <c r="A18" s="6">
-        <v>300760</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="7">
-        <v>22410</v>
-      </c>
-      <c r="D18" s="11">
-        <v>100</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="0"/>
-        <v>224.1</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" customFormat="1" spans="1:9">
-      <c r="A19" s="6">
-        <v>603195</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="7">
-        <v>23840</v>
-      </c>
-      <c r="D19" s="11">
-        <v>500</v>
-      </c>
-      <c r="E19" s="8">
-        <f t="shared" si="0"/>
-        <v>47.68</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6">
-        <v>603833</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="7">
-        <v>22240</v>
-      </c>
-      <c r="D20" s="11">
-        <v>400</v>
-      </c>
-      <c r="E20" s="8">
-        <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
-      <c r="G20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="10">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:9">
-      <c r="A21" s="6">
-        <v>300896</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="7">
-        <v>34553</v>
-      </c>
-      <c r="D21" s="11">
-        <v>200</v>
-      </c>
-      <c r="E21" s="8">
-        <f t="shared" si="0"/>
-        <v>172.765</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" s="6">
-        <v>300529</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7">
-        <v>21550</v>
-      </c>
-      <c r="D22" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="8">
-        <f t="shared" si="0"/>
-        <v>21.55</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="6">
-        <v>300573</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="7">
-        <v>41384</v>
-      </c>
-      <c r="D23" s="11">
-        <v>800</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="0"/>
-        <v>51.73</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I23" s="10"/>
-    </row>
-    <row r="24" customFormat="1" spans="1:9">
-      <c r="A24" s="6">
-        <v>300628</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" s="7">
-        <v>20850</v>
-      </c>
-      <c r="D24" s="11">
-        <v>600</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" si="0"/>
-        <v>34.75</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I24" s="10"/>
-    </row>
-    <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="7">
-        <v>20244</v>
-      </c>
-      <c r="D25" s="11">
-        <v>1200</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="0"/>
-        <v>16.87</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="10">
-        <v>45838</v>
-      </c>
-      <c r="I25" s="10"/>
+      <c r="E26" s="9">
+        <f t="shared" si="0"/>
+        <v>220.91</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="11">
+        <v>45842</v>
+      </c>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="8">
+        <v>40740</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="9">
+        <f>C27/D27</f>
+        <v>29.1</v>
+      </c>
+      <c r="G27" s="10">
+        <f>F27/C27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="11">
+        <v>45847</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A25 A7 A11:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A27 A25 A7 A11:A13" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2935,52 +3141,77 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H$1:I$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="6" customWidth="1"/>
+    <col min="9" max="9" width="20" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="3">
+        <v>22353.52</v>
+      </c>
+      <c r="D2" s="3">
+        <v>223</v>
+      </c>
+      <c r="E2" s="4">
+        <f>C2/D2</f>
+        <v>100.24</v>
+      </c>
+      <c r="G2" s="5">
+        <f>F2/C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>45846</v>
       </c>
     </row>
   </sheetData>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
   <si>
     <t>代码</t>
   </si>
@@ -239,7 +239,22 @@
     <t>中际联合</t>
   </si>
   <si>
+    <t>600763</t>
+  </si>
+  <si>
+    <t>通策医疗</t>
+  </si>
+  <si>
     <t>MINT</t>
+  </si>
+  <si>
+    <t>日利ETF</t>
+  </si>
+  <si>
+    <t>AGQ</t>
+  </si>
+  <si>
+    <t>二倍做多白银ETF</t>
   </si>
 </sst>
 </file>
@@ -859,27 +874,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,420 +1213,430 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20" style="7" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="10.125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="17" style="11" customWidth="1"/>
-    <col min="9" max="9" width="20.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="17" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>600798</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>9870</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>2100</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <f>C2/D2</f>
         <v>4.7</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>-1841.19</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <f>F2/C2</f>
         <v>-0.186544072948328</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="5">
         <v>45797</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="5">
         <v>45800</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="2">
         <v>7977</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>300</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <f t="shared" ref="E3:E14" si="0">C3/D3</f>
         <v>26.59</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2">
         <v>-951.52</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="4">
         <f t="shared" ref="G3:G14" si="1">F3/C3</f>
         <v>-0.119282938448038</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="5">
         <v>45803</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="2">
         <v>25560</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>400</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>63.9</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="2">
         <v>153.92</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>0.00602190923317684</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="5">
         <v>45817</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="5">
         <v>45824</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="2">
         <v>10995</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>500</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>21.99</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="2">
         <v>518.29</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="4">
         <f t="shared" si="1"/>
         <v>0.0471386994088222</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="5">
         <v>45819</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="5">
         <v>45824</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>603322</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="2">
         <v>21200</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>500</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>42.4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="2">
         <v>278.76</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>0.0131490566037736</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="5">
         <v>45821</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="5">
         <v>45825</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="7">
+      <c r="A7" s="1">
         <v>300475</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="2">
         <v>11073</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>300</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>36.91</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="2">
         <v>101.4</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>0.00915740991601192</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="5">
         <v>45826</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="5">
         <v>45827</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>300972</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>16980</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>100</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>169.8</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="2">
         <v>17.49</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="4">
         <f t="shared" si="1"/>
         <v>0.00103003533568905</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="5">
         <v>45832</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="5">
         <v>45835</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>8850</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>300</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>29.5</v>
       </c>
-      <c r="G9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>45841</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="2">
         <v>9686</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>2900</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>3.34</v>
       </c>
-      <c r="G10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>45841</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="2">
         <v>8449</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>700</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>12.07</v>
       </c>
-      <c r="G11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>45842</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>8412</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>300</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>28.04</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="F12" s="2"/>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>45842</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="1" spans="1:9">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="2">
         <v>10010</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>2600</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>3.85</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="F13" s="2">
+        <v>1300</v>
+      </c>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0.12987012987013</v>
+      </c>
+      <c r="H13" s="5">
         <v>45842</v>
       </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="7" t="s">
+      <c r="I13" s="5">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>10385</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>500</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>20.77</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="F14" s="2">
+        <v>2103.75</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0.202575830524795</v>
+      </c>
+      <c r="H14" s="5">
         <v>45842</v>
+      </c>
+      <c r="I14" s="5">
+        <v>45849</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1644,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A3:A5 A9:A14" numberStoredAsText="1"/>
+    <ignoredError sqref="A9:A14 A3:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1648,751 +1655,757 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A25" sqref="$A25:$XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.875" style="9" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.25" style="11" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>22450</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>500</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E25" si="0">C2/D2</f>
         <v>44.9</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="2">
         <v>-2110.46</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <f t="shared" ref="G2:G25" si="1">F2/C2</f>
         <v>-0.0940071269487751</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="5">
         <v>45813</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="5">
         <v>45821</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="2">
         <v>21000</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>700</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="2">
         <v>1672.42</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="4">
         <f t="shared" si="1"/>
         <v>0.0796390476190476</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="5">
         <v>45813</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="5">
         <v>45839</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="2">
         <v>20052</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>1200</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>16.71</v>
       </c>
-      <c r="G4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>513120</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="2">
         <v>40565</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>35000</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>1.159</v>
       </c>
-      <c r="G5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>45819</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>603323</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="2">
         <v>20304</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>3600</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>5.64</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="2">
         <v>771.04</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="4">
         <f t="shared" si="1"/>
         <v>0.0379747832939322</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="5">
         <v>45821</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="5">
         <v>45834</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="2">
         <v>20382</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>4300</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>4.74</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="2">
         <v>22.77</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="4">
         <f t="shared" si="1"/>
         <v>0.00111716220194289</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="5">
         <v>45821</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="5">
         <v>45825</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>20190</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>3000</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>6.73</v>
       </c>
-      <c r="G8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="F8" s="2">
+        <v>249.77</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0.0123709757305597</v>
+      </c>
+      <c r="H8" s="5">
         <v>45821</v>
       </c>
+      <c r="I8" s="5">
+        <v>45848</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>512800</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>21593</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>13000</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>1.661</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="2">
         <v>639.04</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>0.0295947760848423</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="5">
         <v>45821</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="5">
         <v>45835</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>159869</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="2">
         <v>20502</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>17000</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>1.206</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="2">
         <v>355.13</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="4">
         <f t="shared" si="1"/>
         <v>0.0173217247097844</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="5">
         <v>45821</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="5">
         <v>45832</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7">
+      <c r="A11" s="1">
         <v>513120</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="2">
         <v>20043</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>17000</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>1.179</v>
       </c>
-      <c r="G11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>45824</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="1">
         <v>600350</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>20862</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>1900</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>10.98</v>
       </c>
-      <c r="G12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>45824</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="7">
+      <c r="A13" s="1">
         <v>601128</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="2">
         <v>20385</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>2700</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>7.55</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="2">
         <v>195.29</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="4">
         <f t="shared" si="1"/>
         <v>0.00958008339465293</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="5">
         <v>45825</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="5">
         <v>45834</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>513120</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>20214</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>18000</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>1.123</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="2">
         <v>1034</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="4">
         <f t="shared" si="1"/>
         <v>0.051152666468784</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="5">
         <v>45825</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="5">
         <v>45841</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>159869</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>20587</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>17000</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>1.211</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="2">
         <v>355.13</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <f t="shared" si="1"/>
         <v>0.0172502064409579</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="5">
         <v>45825</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="5">
         <v>45832</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>300308</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="2">
         <v>24800</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>200</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="2">
         <v>2922.13</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>0.117827822580645</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="5">
         <v>45833</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="5">
         <v>45838</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>159915</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2">
         <v>66511.2</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <v>32100</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>2.072</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="2">
         <v>897.41</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="4">
         <f t="shared" si="1"/>
         <v>0.0134926147776615</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="5">
         <v>45833</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="5">
         <v>45835</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>159967</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="2">
         <v>66609.4</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <v>150700</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>0.442</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="2">
         <v>418.68</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>0.00628559932982432</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="5">
         <v>45833</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="5">
         <v>45835</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>159967</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="2">
         <v>66555</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>147900</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>0.45</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="2">
         <v>123.91</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="4">
         <f t="shared" si="1"/>
         <v>0.00186176846217414</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="5">
         <v>45833</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="5">
         <v>45838</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:9">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>159915</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="2">
         <v>67213.3</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <v>31900</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>2.107</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="2">
         <v>390</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>0.00580242303234628</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="5">
         <v>45833</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="5">
         <v>45839</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>513090</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="2">
         <v>43679.1</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>23700</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>1.843</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="2">
         <v>144.02</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="4">
         <f t="shared" si="1"/>
         <v>0.00329722910957414</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="5">
         <v>45834</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="5">
         <v>45841</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="1">
         <v>512800</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="2">
         <v>22165</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="6">
         <v>13000</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>1.705</v>
       </c>
-      <c r="G22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>45838</v>
       </c>
     </row>
     <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="7">
+      <c r="A23" s="1">
         <v>600350</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="2">
         <v>20900</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>2000</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>10.45</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="F23" s="2"/>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>45841</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="2">
         <v>20352</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <v>3200</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>6.36</v>
       </c>
-      <c r="G24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>45841</v>
       </c>
     </row>
     <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="2">
         <v>23000</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <v>100</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="F25" s="2"/>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <v>45845</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A7:A8 A2:A4 A24:A25" numberStoredAsText="1"/>
+    <ignoredError sqref="A24:A25 A2:A4 A7:A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2400,732 +2413,757 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="19.125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="17.875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="12.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7">
+      <c r="A2" s="1">
         <v>300529</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>21980</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="6">
         <v>1000</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="3">
         <f>C2/D2</f>
         <v>21.98</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="4">
         <f>F2/C2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
+      <c r="A3" s="1">
         <v>300529</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="2">
         <v>21800</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="6">
         <v>1000</v>
       </c>
-      <c r="E3" s="9">
-        <f t="shared" ref="E3:E26" si="0">C3/D3</f>
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E28" si="0">C3/D3</f>
         <v>21.8</v>
       </c>
-      <c r="G3" s="10">
-        <f t="shared" ref="G3:G26" si="1">F3/C3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G28" si="1">F3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
+      <c r="A4" s="1">
         <v>300896</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="2">
         <v>34560</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>172.8</v>
       </c>
-      <c r="G4" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="11">
+      <c r="G4" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="1">
         <v>603605</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="2">
         <v>25440</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>300</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>84.8</v>
       </c>
-      <c r="G5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="G5" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="7">
+      <c r="A6" s="1">
         <v>601888</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="2">
         <v>24592</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>400</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>61.48</v>
       </c>
-      <c r="G6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="G6" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="2">
         <v>24960</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>200</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>124.8</v>
       </c>
-      <c r="G7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="7">
+      <c r="A8" s="1">
         <v>603195</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>20080</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>400</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>50.2</v>
       </c>
-      <c r="G8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <v>45817</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="7">
+      <c r="A9" s="1">
         <v>300760</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>23799</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>100</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>237.99</v>
       </c>
-      <c r="G9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <v>45819</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="7">
+      <c r="A10" s="1">
         <v>603259</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="2">
         <v>26076</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>400</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>65.19</v>
       </c>
-      <c r="G10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <v>45819</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="2">
         <v>21420</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>1200</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>17.85</v>
       </c>
-      <c r="G11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <v>45819</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>21048</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="6">
         <v>1200</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>17.54</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="F12" s="2"/>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <v>45824</v>
       </c>
-      <c r="I12" s="11"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="2">
         <v>21120</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="6">
         <v>400</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="11">
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>45827</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="A14" s="1">
         <v>300628</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>21000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="6">
         <v>600</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="11">
+      <c r="G14" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <v>45827</v>
       </c>
     </row>
     <row r="15" customFormat="1" spans="1:9">
-      <c r="A15" s="7">
+      <c r="A15" s="1">
         <v>603195</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>23620</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="6">
         <v>500</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>47.24</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="2">
         <v>241.4</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="4">
         <f t="shared" si="1"/>
         <v>0.0102201524132091</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="5">
         <v>45831</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="5">
         <v>45835</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
-      <c r="A16" s="7">
+      <c r="A16" s="1">
         <v>300760</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="2">
         <v>22500</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="6">
         <v>100</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="2">
         <v>123.05</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="4">
         <f t="shared" si="1"/>
         <v>0.00546888888888889</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="5">
         <v>45832</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="5">
         <v>45835</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="1">
         <v>300573</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2">
         <v>20552</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="6">
         <v>400</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>51.38</v>
       </c>
-      <c r="G17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+      <c r="G17" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <v>45832</v>
       </c>
     </row>
     <row r="18" customFormat="1" spans="1:9">
-      <c r="A18" s="7">
+      <c r="A18" s="1">
         <v>300760</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="2">
         <v>22410</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="6">
         <v>100</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>224.1</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="11">
+      <c r="F18" s="2"/>
+      <c r="G18" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
         <v>45838</v>
       </c>
-      <c r="I18" s="11"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" customFormat="1" spans="1:9">
-      <c r="A19" s="7">
+      <c r="A19" s="1">
         <v>603195</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="2">
         <v>23840</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="6">
         <v>500</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>47.68</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
+      <c r="F19" s="2"/>
+      <c r="G19" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <v>45838</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="A20" s="1">
         <v>603833</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="2">
         <v>22240</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="6">
         <v>400</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>55.6</v>
       </c>
-      <c r="G20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="11">
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <v>45838</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:9">
-      <c r="A21" s="7">
+      <c r="A21" s="1">
         <v>300896</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="2">
         <v>34553</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="6">
         <v>200</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>172.765</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
+      <c r="F21" s="2"/>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>45838</v>
       </c>
-      <c r="I21" s="11"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="1" spans="1:9">
-      <c r="A22" s="7">
+      <c r="A22" s="1">
         <v>300529</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="2">
         <v>21550</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="6">
         <v>1000</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>21.55</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="11">
+      <c r="F22" s="2"/>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>45838</v>
       </c>
-      <c r="I22" s="11"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="7">
+      <c r="A23" s="1">
         <v>300573</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="2">
         <v>41384</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="6">
         <v>800</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>51.73</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="11">
+      <c r="F23" s="2"/>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>45838</v>
       </c>
-      <c r="I23" s="11"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="1" spans="1:9">
-      <c r="A24" s="7">
+      <c r="A24" s="1">
         <v>300628</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="2">
         <v>20850</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="6">
         <v>600</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>34.75</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="F24" s="2"/>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <v>45838</v>
       </c>
-      <c r="I24" s="11"/>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="2">
         <v>20244</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="6">
         <v>1200</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>16.87</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="11">
+      <c r="F25" s="2"/>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <v>45838</v>
       </c>
-      <c r="I25" s="11"/>
+      <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="1" spans="1:9">
-      <c r="A26" s="7">
+      <c r="A26" s="1">
         <v>300760</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="2">
         <v>22091</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="6">
         <v>100</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>220.91</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="11">
+      <c r="F26" s="2"/>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <v>45842</v>
       </c>
-      <c r="I26" s="11"/>
+      <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="2">
         <v>40740</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="6">
         <v>1400</v>
       </c>
-      <c r="E27" s="9">
-        <f>C27/D27</f>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
         <v>29.1</v>
       </c>
-      <c r="G27" s="10">
-        <f>F27/C27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>45847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2">
+        <v>20750</v>
+      </c>
+      <c r="D28" s="6">
+        <v>500</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45848</v>
       </c>
     </row>
   </sheetData>
@@ -3133,7 +3171,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A27 A25 A7 A11:A13" numberStoredAsText="1"/>
+    <ignoredError sqref="A11:A13 A7 A25 A27:A28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3141,77 +3179,102 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="15.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="20" style="6" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="20" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="3">
+        <v>72</v>
+      </c>
+      <c r="C2" s="2">
         <v>22353.52</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>223</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <f>C2/D2</f>
         <v>100.24</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <f>F2/C2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>45846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7721.26</v>
+      </c>
+      <c r="D3" s="2">
+        <v>157</v>
+      </c>
+      <c r="E3" s="3">
+        <f>C3/D3</f>
+        <v>49.18</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F3/C3</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>45849</v>
       </c>
     </row>
   </sheetData>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>代码</t>
   </si>
@@ -113,6 +113,12 @@
     <t>亚玛顿</t>
   </si>
   <si>
+    <t>515790</t>
+  </si>
+  <si>
+    <t>光伏ETF</t>
+  </si>
+  <si>
     <t>001317</t>
   </si>
   <si>
@@ -125,69 +131,75 @@
     <t>新大陆</t>
   </si>
   <si>
+    <t>港股创新药ETF</t>
+  </si>
+  <si>
+    <t>苏农银行</t>
+  </si>
+  <si>
+    <t>002807</t>
+  </si>
+  <si>
+    <t>江阴银行</t>
+  </si>
+  <si>
+    <t>000421</t>
+  </si>
+  <si>
+    <t>南京公用</t>
+  </si>
+  <si>
+    <t>银行ETF</t>
+  </si>
+  <si>
+    <t>游戏ETF</t>
+  </si>
+  <si>
+    <t>山东高速</t>
+  </si>
+  <si>
+    <t>常熟银行</t>
+  </si>
+  <si>
+    <t>中际旭创</t>
+  </si>
+  <si>
+    <t>创业板ETF</t>
+  </si>
+  <si>
+    <t>创成长ETF</t>
+  </si>
+  <si>
+    <t>香港证券ETF</t>
+  </si>
+  <si>
+    <t>600901</t>
+  </si>
+  <si>
+    <t>江苏金租</t>
+  </si>
+  <si>
+    <t>603129</t>
+  </si>
+  <si>
+    <t>春风动力</t>
+  </si>
+  <si>
+    <t>560090</t>
+  </si>
+  <si>
+    <t>证券ETF</t>
+  </si>
+  <si>
+    <t>健帆生物</t>
+  </si>
+  <si>
     <t>002648</t>
   </si>
   <si>
     <t>卫星化学</t>
   </si>
   <si>
-    <t>港股创新药ETF</t>
-  </si>
-  <si>
-    <t>苏农银行</t>
-  </si>
-  <si>
-    <t>002807</t>
-  </si>
-  <si>
-    <t>江阴银行</t>
-  </si>
-  <si>
-    <t>000421</t>
-  </si>
-  <si>
-    <t>南京公用</t>
-  </si>
-  <si>
-    <t>银行ETF</t>
-  </si>
-  <si>
-    <t>游戏ETF</t>
-  </si>
-  <si>
-    <t>山东高速</t>
-  </si>
-  <si>
-    <t>常熟银行</t>
-  </si>
-  <si>
-    <t>中际旭创</t>
-  </si>
-  <si>
-    <t>创业板ETF</t>
-  </si>
-  <si>
-    <t>创成长ETF</t>
-  </si>
-  <si>
-    <t>香港证券ETF</t>
-  </si>
-  <si>
-    <t>600901</t>
-  </si>
-  <si>
-    <t>江苏金租</t>
-  </si>
-  <si>
-    <t>603129</t>
-  </si>
-  <si>
-    <t>春风动力</t>
-  </si>
-  <si>
-    <t>健帆生物</t>
-  </si>
-  <si>
     <t>爱美客</t>
   </si>
   <si>
@@ -243,6 +255,12 @@
   </si>
   <si>
     <t>通策医疗</t>
+  </si>
+  <si>
+    <t>000983</t>
+  </si>
+  <si>
+    <t>山西焦煤</t>
   </si>
   <si>
     <t>MINT</t>
@@ -1210,10 +1228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1303,14 +1321,14 @@
         <v>300</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E14" si="0">C3/D3</f>
+        <f t="shared" ref="E3:E15" si="0">C3/D3</f>
         <v>26.59</v>
       </c>
       <c r="F3" s="2">
         <v>-951.52</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G14" si="1">F3/C3</f>
+        <f t="shared" ref="G3:G15" si="1">F3/C3</f>
         <v>-0.119282938448038</v>
       </c>
       <c r="H3" s="5">
@@ -1637,6 +1655,31 @@
       </c>
       <c r="I14" s="5">
         <v>45849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20216</v>
+      </c>
+      <c r="D15" s="6">
+        <v>28000</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.722</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <v>45853</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1687,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A9:A14 A3:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A9:A15 A3:A5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1652,10 +1695,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1702,10 +1745,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2">
         <v>22450</v>
@@ -1714,14 +1757,14 @@
         <v>500</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E25" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E27" si="0">C2/D2</f>
         <v>44.9</v>
       </c>
       <c r="F2" s="2">
         <v>-2110.46</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G25" si="1">F2/C2</f>
+        <f t="shared" ref="G2:G27" si="1">F2/C2</f>
         <v>-0.0940071269487751</v>
       </c>
       <c r="H2" s="5">
@@ -1733,10 +1776,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>21000</v>
@@ -1763,226 +1806,232 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7" t="s">
-        <v>31</v>
+      <c r="A4" s="1">
+        <v>513120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
-        <v>20052</v>
+        <v>40565</v>
       </c>
       <c r="D4" s="6">
-        <v>1200</v>
+        <v>35000</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>16.71</v>
+        <v>1.159</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>45817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>513120</v>
+        <v>603323</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
-        <v>40565</v>
+        <v>20304</v>
       </c>
       <c r="D5" s="6">
-        <v>35000</v>
+        <v>3600</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>1.159</v>
+        <v>5.64</v>
+      </c>
+      <c r="F5" s="2">
+        <v>771.04</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.0379747832939322</v>
       </c>
       <c r="H5" s="5">
-        <v>45819</v>
+        <v>45821</v>
+      </c>
+      <c r="I5" s="5">
+        <v>45834</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>603323</v>
+      <c r="A6" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="2">
-        <v>20304</v>
+        <v>20382</v>
       </c>
       <c r="D6" s="6">
-        <v>3600</v>
+        <v>4300</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>5.64</v>
+        <v>4.74</v>
       </c>
       <c r="F6" s="2">
-        <v>771.04</v>
+        <v>22.77</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
-        <v>0.0379747832939322</v>
+        <v>0.00111716220194289</v>
       </c>
       <c r="H6" s="5">
         <v>45821</v>
       </c>
       <c r="I6" s="5">
-        <v>45834</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="2">
-        <v>20382</v>
+        <v>20190</v>
       </c>
       <c r="D7" s="6">
-        <v>4300</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>4.74</v>
+        <v>6.73</v>
       </c>
       <c r="F7" s="2">
-        <v>22.77</v>
+        <v>249.77</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
-        <v>0.00111716220194289</v>
+        <v>0.0123709757305597</v>
       </c>
       <c r="H7" s="5">
         <v>45821</v>
       </c>
       <c r="I7" s="5">
-        <v>45825</v>
+        <v>45848</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="7" t="s">
-        <v>37</v>
+      <c r="A8" s="1">
+        <v>512800</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
-        <v>20190</v>
+        <v>21593</v>
       </c>
       <c r="D8" s="6">
-        <v>3000</v>
+        <v>13000</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>6.73</v>
+        <v>1.661</v>
       </c>
       <c r="F8" s="2">
-        <v>249.77</v>
+        <v>639.04</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
-        <v>0.0123709757305597</v>
+        <v>0.0295947760848423</v>
       </c>
       <c r="H8" s="5">
         <v>45821</v>
       </c>
       <c r="I8" s="5">
-        <v>45848</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>512800</v>
+        <v>159869</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
-        <v>21593</v>
+        <v>20502</v>
       </c>
       <c r="D9" s="6">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>1.661</v>
+        <v>1.206</v>
       </c>
       <c r="F9" s="2">
-        <v>639.04</v>
+        <v>355.13</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
-        <v>0.0295947760848423</v>
+        <v>0.0173217247097844</v>
       </c>
       <c r="H9" s="5">
         <v>45821</v>
       </c>
       <c r="I9" s="5">
-        <v>45835</v>
+        <v>45832</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>159869</v>
+        <v>513120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
-        <v>20502</v>
+        <v>20043</v>
       </c>
       <c r="D10" s="6">
         <v>17000</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>1.206</v>
+        <v>1.179</v>
       </c>
       <c r="F10" s="2">
-        <v>355.13</v>
+        <v>1196.32</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
-        <v>0.0173217247097844</v>
+        <v>0.0596876715062615</v>
       </c>
       <c r="H10" s="5">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="I10" s="5">
-        <v>45832</v>
+        <v>45853</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>513120</v>
+        <v>600350</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
-        <v>20043</v>
+        <v>20862</v>
       </c>
       <c r="D11" s="6">
-        <v>17000</v>
+        <v>1900</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>1.179</v>
+        <v>10.98</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
@@ -1992,178 +2041,184 @@
         <v>45824</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
-        <v>600350</v>
+        <v>601128</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
-        <v>20862</v>
+        <v>20385</v>
       </c>
       <c r="D12" s="6">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>10.98</v>
+        <v>7.55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>195.29</v>
       </c>
       <c r="G12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00958008339465293</v>
       </c>
       <c r="H12" s="5">
-        <v>45824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>45825</v>
+      </c>
+      <c r="I12" s="5">
+        <v>45834</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="1">
-        <v>601128</v>
+        <v>513120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
-        <v>20385</v>
+        <v>20214</v>
       </c>
       <c r="D13" s="6">
-        <v>2700</v>
+        <v>18000</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>7.55</v>
+        <v>1.123</v>
       </c>
       <c r="F13" s="2">
-        <v>195.29</v>
+        <v>1034</v>
       </c>
       <c r="G13" s="4">
         <f t="shared" si="1"/>
-        <v>0.00958008339465293</v>
+        <v>0.051152666468784</v>
       </c>
       <c r="H13" s="5">
         <v>45825</v>
       </c>
       <c r="I13" s="5">
-        <v>45834</v>
+        <v>45841</v>
       </c>
     </row>
     <row r="14" customFormat="1" spans="1:9">
       <c r="A14" s="1">
-        <v>513120</v>
+        <v>159869</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
-        <v>20214</v>
+        <v>20587</v>
       </c>
       <c r="D14" s="6">
-        <v>18000</v>
+        <v>17000</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1.123</v>
+        <v>1.211</v>
       </c>
       <c r="F14" s="2">
-        <v>1034</v>
+        <v>355.13</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
-        <v>0.051152666468784</v>
+        <v>0.0172502064409579</v>
       </c>
       <c r="H14" s="5">
         <v>45825</v>
       </c>
       <c r="I14" s="5">
-        <v>45841</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" spans="1:9">
+        <v>45832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
-        <v>159869</v>
+        <v>300308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
-        <v>20587</v>
+        <v>24800</v>
       </c>
       <c r="D15" s="6">
-        <v>17000</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>1.211</v>
+        <v>124</v>
       </c>
       <c r="F15" s="2">
-        <v>355.13</v>
+        <v>2922.13</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>0.0172502064409579</v>
+        <v>0.117827822580645</v>
       </c>
       <c r="H15" s="5">
-        <v>45825</v>
+        <v>45833</v>
       </c>
       <c r="I15" s="5">
-        <v>45832</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1">
-        <v>300308</v>
+        <v>159915</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
-        <v>24800</v>
+        <v>66511.2</v>
       </c>
       <c r="D16" s="6">
-        <v>200</v>
+        <v>32100</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>124</v>
+        <v>2.072</v>
       </c>
       <c r="F16" s="2">
-        <v>2922.13</v>
+        <v>897.41</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>0.117827822580645</v>
+        <v>0.0134926147776615</v>
       </c>
       <c r="H16" s="5">
         <v>45833</v>
       </c>
       <c r="I16" s="5">
-        <v>45838</v>
+        <v>45835</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
-        <v>159915</v>
+        <v>159967</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
-        <v>66511.2</v>
+        <v>66609.4</v>
       </c>
       <c r="D17" s="6">
-        <v>32100</v>
+        <v>150700</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>2.072</v>
+        <v>0.442</v>
       </c>
       <c r="F17" s="2">
-        <v>897.41</v>
+        <v>418.68</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>0.0134926147776615</v>
+        <v>0.00628559932982432</v>
       </c>
       <c r="H17" s="5">
         <v>45833</v>
@@ -2172,7 +2227,7 @@
         <v>45835</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" customFormat="1" spans="1:9">
       <c r="A18" s="1">
         <v>159967</v>
       </c>
@@ -2180,165 +2235,160 @@
         <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>66609.4</v>
+        <v>66555</v>
       </c>
       <c r="D18" s="6">
-        <v>150700</v>
+        <v>147900</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>0.442</v>
+        <v>0.45</v>
       </c>
       <c r="F18" s="2">
-        <v>418.68</v>
+        <v>123.91</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
-        <v>0.00628559932982432</v>
+        <v>0.00186176846217414</v>
       </c>
       <c r="H18" s="5">
         <v>45833</v>
       </c>
       <c r="I18" s="5">
-        <v>45835</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="1">
-        <v>159967</v>
+        <v>159915</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
-        <v>66555</v>
+        <v>67213.3</v>
       </c>
       <c r="D19" s="6">
-        <v>147900</v>
+        <v>31900</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>0.45</v>
+        <v>2.107</v>
       </c>
       <c r="F19" s="2">
-        <v>123.91</v>
+        <v>390</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>0.00186176846217414</v>
+        <v>0.00580242303234628</v>
       </c>
       <c r="H19" s="5">
         <v>45833</v>
       </c>
       <c r="I19" s="5">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1">
+        <v>513090</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2">
+        <v>43679.1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>23700</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.843</v>
+      </c>
+      <c r="F20" s="2">
+        <v>144.02</v>
+      </c>
+      <c r="G20" s="4">
+        <f t="shared" si="1"/>
+        <v>0.00329722910957414</v>
+      </c>
+      <c r="H20" s="5">
+        <v>45834</v>
+      </c>
+      <c r="I20" s="5">
+        <v>45841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>512800</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2">
+        <v>22165</v>
+      </c>
+      <c r="D21" s="6">
+        <v>13000</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.705</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <v>45838</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:9">
-      <c r="A20" s="1">
-        <v>159915</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="2">
-        <v>67213.3</v>
-      </c>
-      <c r="D20" s="6">
-        <v>31900</v>
-      </c>
-      <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>2.107</v>
-      </c>
-      <c r="F20" s="2">
-        <v>390</v>
-      </c>
-      <c r="G20" s="4">
-        <f t="shared" si="1"/>
-        <v>0.00580242303234628</v>
-      </c>
-      <c r="H20" s="5">
-        <v>45833</v>
-      </c>
-      <c r="I20" s="5">
-        <v>45839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>513090</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="2">
-        <v>43679.1</v>
-      </c>
-      <c r="D21" s="6">
-        <v>23700</v>
-      </c>
-      <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>1.843</v>
-      </c>
-      <c r="F21" s="2">
-        <v>144.02</v>
-      </c>
-      <c r="G21" s="4">
-        <f t="shared" si="1"/>
-        <v>0.00329722910957414</v>
-      </c>
-      <c r="H21" s="5">
-        <v>45834</v>
-      </c>
-      <c r="I21" s="5">
+    <row r="22" customFormat="1" spans="1:9">
+      <c r="A22" s="1">
+        <v>600350</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="2">
+        <v>20900</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>10.45</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <v>45841</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>512800</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="2">
-        <v>22165</v>
-      </c>
-      <c r="D22" s="6">
-        <v>13000</v>
-      </c>
-      <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>1.705</v>
-      </c>
-      <c r="G22" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <v>45838</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:9">
-      <c r="A23" s="1">
-        <v>600350</v>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2">
-        <v>20900</v>
+        <v>20352</v>
       </c>
       <c r="D23" s="6">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>10.45</v>
-      </c>
-      <c r="F23" s="2"/>
+        <v>6.36</v>
+      </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2346,49 +2396,50 @@
       <c r="H23" s="5">
         <v>45841</v>
       </c>
-      <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="1:8">
+    </row>
+    <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2">
-        <v>20352</v>
+        <v>23000</v>
       </c>
       <c r="D24" s="6">
-        <v>3200</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>6.36</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H24" s="5">
-        <v>45841</v>
-      </c>
+        <v>45845</v>
+      </c>
+      <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
+      <c r="A25" s="1">
+        <v>159869</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
-        <v>23000</v>
+        <v>20400</v>
       </c>
       <c r="D25" s="6">
-        <v>100</v>
+        <v>16000</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>1.275</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4">
@@ -2396,16 +2447,66 @@
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <v>45845</v>
+        <v>45853</v>
       </c>
       <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2">
+        <v>20080</v>
+      </c>
+      <c r="D26" s="6">
+        <v>16000</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.255</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>513090</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="2">
+        <v>20960</v>
+      </c>
+      <c r="D27" s="6">
+        <v>10000</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>2.096</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <v>45853</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A24:A25 A2:A4 A7:A8" numberStoredAsText="1"/>
+    <ignoredError sqref="A26 A23:A24 A2:A3 A6:A7" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2413,10 +2514,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2466,7 +2567,7 @@
         <v>300529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>21980</v>
@@ -2491,7 +2592,7 @@
         <v>300529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2">
         <v>21800</v>
@@ -2500,61 +2601,63 @@
         <v>1000</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E28" si="0">C3/D3</f>
+        <f>C3/D3</f>
         <v>21.8</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G28" si="1">F3/C3</f>
+        <f>F3/C3</f>
         <v>0</v>
       </c>
       <c r="H3" s="5">
         <v>45817</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>300896</v>
+    <row r="4" customFormat="1" spans="1:9">
+      <c r="A4" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2">
-        <v>34560</v>
+        <v>20052</v>
       </c>
       <c r="D4" s="6">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>172.8</v>
-      </c>
+        <f>C4/D4</f>
+        <v>16.71</v>
+      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
+        <f>F4/C4</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>45817</v>
       </c>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>603605</v>
+        <v>300896</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
-        <v>25440</v>
+        <v>34560</v>
       </c>
       <c r="D5" s="6">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>84.8</v>
+        <f t="shared" ref="E5:E29" si="0">C5/D5</f>
+        <v>172.8</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G5:G29" si="1">F5/C5</f>
         <v>0</v>
       </c>
       <c r="H5" s="5">
@@ -2563,20 +2666,20 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>601888</v>
+        <v>603605</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2">
-        <v>24592</v>
+        <v>25440</v>
       </c>
       <c r="D6" s="6">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>61.48</v>
+        <v>84.8</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="1"/>
@@ -2587,21 +2690,21 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="7" t="s">
-        <v>55</v>
+      <c r="A7" s="1">
+        <v>601888</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
-        <v>24960</v>
+        <v>24592</v>
       </c>
       <c r="D7" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>124.8</v>
+        <v>61.48</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="1"/>
@@ -2612,21 +2715,21 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>603195</v>
+      <c r="A8" s="7" t="s">
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2">
-        <v>20080</v>
+        <v>24960</v>
       </c>
       <c r="D8" s="6">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>50.2</v>
+        <v>124.8</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="1"/>
@@ -2638,45 +2741,45 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>300760</v>
+        <v>603195</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2">
-        <v>23799</v>
+        <v>20080</v>
       </c>
       <c r="D9" s="6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>237.99</v>
+        <v>50.2</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="5">
-        <v>45819</v>
+        <v>45817</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>603259</v>
+        <v>300760</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2">
-        <v>26076</v>
+        <v>23799</v>
       </c>
       <c r="D10" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>65.19</v>
+        <v>237.99</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="1"/>
@@ -2687,21 +2790,21 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="7" t="s">
-        <v>60</v>
+      <c r="A11" s="1">
+        <v>603259</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2">
-        <v>21420</v>
+        <v>26076</v>
       </c>
       <c r="D11" s="6">
-        <v>1200</v>
+        <v>400</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>17.85</v>
+        <v>65.19</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
@@ -2711,74 +2814,74 @@
         <v>45819</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:9">
+    <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2">
-        <v>21048</v>
+        <v>21420</v>
       </c>
       <c r="D12" s="6">
         <v>1200</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="0"/>
+        <v>17.85</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>45819</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="2">
+        <v>21048</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1200</v>
+      </c>
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
         <v>17.54</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
+      <c r="F13" s="2"/>
+      <c r="G13" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <v>45824</v>
       </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2">
         <v>21120</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D14" s="6">
         <v>400</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>52.8</v>
-      </c>
-      <c r="G13" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>45827</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>300628</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2">
-        <v>21000</v>
-      </c>
-      <c r="D14" s="6">
-        <v>600</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>35</v>
       </c>
       <c r="G14" s="4">
         <f t="shared" si="1"/>
@@ -2788,136 +2891,134 @@
         <v>45827</v>
       </c>
     </row>
-    <row r="15" customFormat="1" spans="1:9">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
-        <v>603195</v>
+        <v>300628</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2">
-        <v>23620</v>
+        <v>21000</v>
       </c>
       <c r="D15" s="6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="0"/>
-        <v>47.24</v>
-      </c>
-      <c r="F15" s="2">
-        <v>241.4</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" si="1"/>
-        <v>0.0102201524132091</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>45831</v>
-      </c>
-      <c r="I15" s="5">
-        <v>45835</v>
+        <v>45827</v>
       </c>
     </row>
     <row r="16" customFormat="1" spans="1:9">
       <c r="A16" s="1">
-        <v>300760</v>
+        <v>603195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2">
-        <v>22500</v>
+        <v>23620</v>
       </c>
       <c r="D16" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>225</v>
+        <v>47.24</v>
       </c>
       <c r="F16" s="2">
-        <v>123.05</v>
+        <v>241.4</v>
       </c>
       <c r="G16" s="4">
         <f t="shared" si="1"/>
-        <v>0.00546888888888889</v>
+        <v>0.0102201524132091</v>
       </c>
       <c r="H16" s="5">
-        <v>45832</v>
+        <v>45831</v>
       </c>
       <c r="I16" s="5">
         <v>45835</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" customFormat="1" spans="1:9">
       <c r="A17" s="1">
-        <v>300573</v>
+        <v>300760</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C17" s="2">
-        <v>20552</v>
+        <v>22500</v>
       </c>
       <c r="D17" s="6">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>51.38</v>
+        <v>225</v>
+      </c>
+      <c r="F17" s="2">
+        <v>123.05</v>
       </c>
       <c r="G17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.00546888888888889</v>
       </c>
       <c r="H17" s="5">
         <v>45832</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:9">
+      <c r="I17" s="5">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
-        <v>300760</v>
+        <v>300573</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2">
-        <v>22410</v>
+        <v>20552</v>
       </c>
       <c r="D18" s="6">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>224.1</v>
-      </c>
-      <c r="F18" s="2"/>
+        <v>51.38</v>
+      </c>
       <c r="G18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H18" s="5">
-        <v>45838</v>
-      </c>
-      <c r="I18" s="5"/>
+        <v>45832</v>
+      </c>
     </row>
     <row r="19" customFormat="1" spans="1:9">
       <c r="A19" s="1">
-        <v>603195</v>
+        <v>300760</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C19" s="2">
-        <v>23840</v>
+        <v>22410</v>
       </c>
       <c r="D19" s="6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="0"/>
-        <v>47.68</v>
+        <v>224.1</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="4">
@@ -2929,23 +3030,24 @@
       </c>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" customFormat="1" spans="1:9">
       <c r="A20" s="1">
-        <v>603833</v>
+        <v>603195</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2">
-        <v>22240</v>
+        <v>23840</v>
       </c>
       <c r="D20" s="6">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>55.6</v>
-      </c>
+        <v>47.68</v>
+      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2953,25 +3055,25 @@
       <c r="H20" s="5">
         <v>45838</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:9">
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
-        <v>300896</v>
+        <v>603833</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2">
-        <v>34553</v>
+        <v>22240</v>
       </c>
       <c r="D21" s="6">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>172.765</v>
-      </c>
-      <c r="F21" s="2"/>
+        <v>55.6</v>
+      </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2979,24 +3081,23 @@
       <c r="H21" s="5">
         <v>45838</v>
       </c>
-      <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="1" spans="1:9">
       <c r="A22" s="1">
-        <v>300529</v>
+        <v>300896</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2">
-        <v>21550</v>
+        <v>34553</v>
       </c>
       <c r="D22" s="6">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="0"/>
-        <v>21.55</v>
+        <v>172.765</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="4">
@@ -3010,20 +3111,20 @@
     </row>
     <row r="23" customFormat="1" spans="1:9">
       <c r="A23" s="1">
-        <v>300573</v>
+        <v>300529</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2">
-        <v>41384</v>
+        <v>21550</v>
       </c>
       <c r="D23" s="6">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="0"/>
-        <v>51.73</v>
+        <v>21.55</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4">
@@ -3037,20 +3138,20 @@
     </row>
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="1">
-        <v>300628</v>
+        <v>300573</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C24" s="2">
-        <v>20850</v>
+        <v>41384</v>
       </c>
       <c r="D24" s="6">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="0"/>
-        <v>34.75</v>
+        <v>51.73</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="4">
@@ -3063,21 +3164,21 @@
       <c r="I24" s="5"/>
     </row>
     <row r="25" customFormat="1" spans="1:9">
-      <c r="A25" s="7" t="s">
-        <v>60</v>
+      <c r="A25" s="1">
+        <v>300628</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C25" s="2">
-        <v>20244</v>
+        <v>20850</v>
       </c>
       <c r="D25" s="6">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="0"/>
-        <v>16.87</v>
+        <v>34.75</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="4">
@@ -3090,21 +3191,21 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" customFormat="1" spans="1:9">
-      <c r="A26" s="1">
-        <v>300760</v>
+      <c r="A26" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2">
-        <v>22091</v>
+        <v>20244</v>
       </c>
       <c r="D26" s="6">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>220.91</v>
+        <v>16.87</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="4">
@@ -3112,66 +3213,172 @@
         <v>0</v>
       </c>
       <c r="H26" s="5">
+        <v>45838</v>
+      </c>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" customFormat="1" spans="1:9">
+      <c r="A27" s="1">
+        <v>300760</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="2">
+        <v>22091</v>
+      </c>
+      <c r="D27" s="6">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>220.91</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <v>45842</v>
       </c>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="2">
-        <v>40740</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1400</v>
-      </c>
-      <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>29.1</v>
-      </c>
-      <c r="G27" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <v>45847</v>
-      </c>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="2">
+        <v>40740</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1400</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>29.1</v>
+      </c>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45847</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20750</v>
+      </c>
+      <c r="D29" s="6">
+        <v>500</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>41.5</v>
+      </c>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45848</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2">
+        <v>20553</v>
+      </c>
+      <c r="D30" s="6">
+        <v>3100</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" ref="E30:E32" si="2">C30/D30</f>
+        <v>6.63</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" ref="G30:G32" si="3">F30/C30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:9">
+      <c r="A31" s="1">
+        <v>603833</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2">
-        <v>20750</v>
-      </c>
-      <c r="D28" s="6">
+      <c r="C31" s="2">
+        <v>23000</v>
+      </c>
+      <c r="D31" s="6">
+        <v>400</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="2"/>
+        <v>57.5</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <v>45853</v>
+      </c>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" customFormat="1" spans="1:9">
+      <c r="A32" s="1">
+        <v>603195</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C32" s="2">
+        <v>23565</v>
+      </c>
+      <c r="D32" s="6">
         <v>500</v>
       </c>
-      <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>41.5</v>
-      </c>
-      <c r="G28" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <v>45848</v>
-      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="2"/>
+        <v>47.13</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <v>45853</v>
+      </c>
+      <c r="I32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A11:A13 A7 A25 A27:A28" numberStoredAsText="1"/>
+    <ignoredError sqref="A12:A14 A8 A26 A28:A30 A4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3181,7 +3388,7 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3229,10 +3436,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
         <v>22353.52</v>
@@ -3254,10 +3461,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>7721.26</v>

--- a/投资记录.xlsx
+++ b/投资记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="短线" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="83">
   <si>
     <t>代码</t>
   </si>
@@ -113,82 +113,88 @@
     <t>亚玛顿</t>
   </si>
   <si>
+    <t>001317</t>
+  </si>
+  <si>
+    <t>三羊马</t>
+  </si>
+  <si>
+    <t>000997</t>
+  </si>
+  <si>
+    <t>新大陆</t>
+  </si>
+  <si>
+    <t>港股创新药ETF</t>
+  </si>
+  <si>
+    <t>苏农银行</t>
+  </si>
+  <si>
+    <t>002807</t>
+  </si>
+  <si>
+    <t>江阴银行</t>
+  </si>
+  <si>
+    <t>000421</t>
+  </si>
+  <si>
+    <t>南京公用</t>
+  </si>
+  <si>
+    <t>银行ETF</t>
+  </si>
+  <si>
+    <t>游戏ETF</t>
+  </si>
+  <si>
+    <t>山东高速</t>
+  </si>
+  <si>
+    <t>常熟银行</t>
+  </si>
+  <si>
+    <t>中际旭创</t>
+  </si>
+  <si>
+    <t>创业板ETF</t>
+  </si>
+  <si>
+    <t>创成长ETF</t>
+  </si>
+  <si>
+    <t>香港证券ETF</t>
+  </si>
+  <si>
+    <t>600901</t>
+  </si>
+  <si>
+    <t>江苏金租</t>
+  </si>
+  <si>
+    <t>603129</t>
+  </si>
+  <si>
+    <t>春风动力</t>
+  </si>
+  <si>
+    <t>560090</t>
+  </si>
+  <si>
+    <t>证券ETF</t>
+  </si>
+  <si>
+    <t>159565</t>
+  </si>
+  <si>
+    <t>汽零ETF</t>
+  </si>
+  <si>
     <t>515790</t>
   </si>
   <si>
     <t>光伏ETF</t>
-  </si>
-  <si>
-    <t>001317</t>
-  </si>
-  <si>
-    <t>三羊马</t>
-  </si>
-  <si>
-    <t>000997</t>
-  </si>
-  <si>
-    <t>新大陆</t>
-  </si>
-  <si>
-    <t>港股创新药ETF</t>
-  </si>
-  <si>
-    <t>苏农银行</t>
-  </si>
-  <si>
-    <t>002807</t>
-  </si>
-  <si>
-    <t>江阴银行</t>
-  </si>
-  <si>
-    <t>000421</t>
-  </si>
-  <si>
-    <t>南京公用</t>
-  </si>
-  <si>
-    <t>银行ETF</t>
-  </si>
-  <si>
-    <t>游戏ETF</t>
-  </si>
-  <si>
-    <t>山东高速</t>
-  </si>
-  <si>
-    <t>常熟银行</t>
-  </si>
-  <si>
-    <t>中际旭创</t>
-  </si>
-  <si>
-    <t>创业板ETF</t>
-  </si>
-  <si>
-    <t>创成长ETF</t>
-  </si>
-  <si>
-    <t>香港证券ETF</t>
-  </si>
-  <si>
-    <t>600901</t>
-  </si>
-  <si>
-    <t>江苏金租</t>
-  </si>
-  <si>
-    <t>603129</t>
-  </si>
-  <si>
-    <t>春风动力</t>
-  </si>
-  <si>
-    <t>560090</t>
-  </si>
-  <si>
-    <t>证券ETF</t>
   </si>
   <si>
     <t>健帆生物</t>
@@ -1228,10 +1234,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="$A15:$XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1321,14 +1327,14 @@
         <v>300</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E15" si="0">C3/D3</f>
+        <f>C3/D3</f>
         <v>26.59</v>
       </c>
       <c r="F3" s="2">
         <v>-951.52</v>
       </c>
       <c r="G3" s="4">
-        <f t="shared" ref="G3:G15" si="1">F3/C3</f>
+        <f>F3/C3</f>
         <v>-0.119282938448038</v>
       </c>
       <c r="H3" s="5">
@@ -1352,14 +1358,14 @@
         <v>400</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
+        <f>C4/D4</f>
         <v>63.9</v>
       </c>
       <c r="F4" s="2">
         <v>153.92</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" si="1"/>
+        <f>F4/C4</f>
         <v>0.00602190923317684</v>
       </c>
       <c r="H4" s="5">
@@ -1383,14 +1389,14 @@
         <v>500</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
+        <f>C5/D5</f>
         <v>21.99</v>
       </c>
       <c r="F5" s="2">
         <v>518.29</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="1"/>
+        <f>F5/C5</f>
         <v>0.0471386994088222</v>
       </c>
       <c r="H5" s="5">
@@ -1414,14 +1420,14 @@
         <v>500</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
+        <f>C6/D6</f>
         <v>42.4</v>
       </c>
       <c r="F6" s="2">
         <v>278.76</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="1"/>
+        <f>F6/C6</f>
         <v>0.0131490566037736</v>
       </c>
       <c r="H6" s="5">
@@ -1445,14 +1451,14 @@
         <v>300</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
+        <f>C7/D7</f>
         <v>36.91</v>
       </c>
       <c r="F7" s="2">
         <v>101.4</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="1"/>
+        <f>F7/C7</f>
         <v>0.00915740991601192</v>
       </c>
       <c r="H7" s="5">
@@ -1476,14 +1482,14 @@
         <v>100</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
+        <f>C8/D8</f>
         <v>169.8</v>
       </c>
       <c r="F8" s="2">
         <v>17.49</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="1"/>
+        <f>F8/C8</f>
         <v>0.00103003533568905</v>
       </c>
       <c r="H8" s="5">
@@ -1507,11 +1513,11 @@
         <v>300</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
+        <f>C9/D9</f>
         <v>29.5</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="1"/>
+        <f>F9/C9</f>
         <v>0</v>
       </c>
       <c r="H9" s="5">
@@ -1532,11 +1538,11 @@
         <v>2900</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
+        <f>C10/D10</f>
         <v>3.34</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
+        <f>F10/C10</f>
         <v>0</v>
       </c>
       <c r="H10" s="5">
@@ -1557,11 +1563,11 @@
         <v>700</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
+        <f>C11/D11</f>
         <v>12.07</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="1"/>
+        <f>F11/C11</f>
         <v>0</v>
       </c>
       <c r="H11" s="5">
@@ -1582,12 +1588,12 @@
         <v>300</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
+        <f>C12/D12</f>
         <v>28.04</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4">
-        <f t="shared" si="1"/>
+        <f>F12/C12</f>
         <v>0</v>
       </c>
       <c r="H12" s="5">
@@ -1609,14 +1615,14 @@
         <v>2600</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
+        <f>C13/D13</f>
         <v>3.85</v>
       </c>
       <c r="F13" s="2">
         <v>1300</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="1"/>
+        <f>F13/C13</f>
         <v>0.12987012987013</v>
       </c>
       <c r="H13" s="5">
@@ -1640,14 +1646,14 @@
         <v>500</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
+        <f>C14/D14</f>
         <v>20.77</v>
       </c>
       <c r="F14" s="2">
         <v>2103.75</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="1"/>
+        <f>F14/C14</f>
         <v>0.202575830524795</v>
       </c>
       <c r="H14" s="5">
@@ -1659,27 +1665,58 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2">
-        <v>20216</v>
+        <v>10396</v>
       </c>
       <c r="D15" s="6">
-        <v>28000</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>0.722</v>
+        <f>C15/D15</f>
+        <v>25.99</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="1"/>
+        <f>F15/C15</f>
         <v>0</v>
       </c>
       <c r="H15" s="5">
-        <v>45853</v>
+        <v>45854</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>10121</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2900</v>
+      </c>
+      <c r="E16" s="3">
+        <f>C16/D16</f>
+        <v>3.49</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1015</v>
+      </c>
+      <c r="G16" s="4">
+        <f>F16/C16</f>
+        <v>0.100286532951289</v>
+      </c>
+      <c r="H16" s="5">
+        <v>45854</v>
+      </c>
+      <c r="I16" s="5">
+        <v>45855</v>
       </c>
     </row>
   </sheetData>
@@ -1687,7 +1724,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A9:A15 A3:A5" numberStoredAsText="1"/>
+    <ignoredError sqref="A3:A5 A9:A14 A15:A16" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1695,10 +1732,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1745,10 +1782,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2">
         <v>22450</v>
@@ -1757,14 +1794,14 @@
         <v>500</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E27" si="0">C2/D2</f>
+        <f t="shared" ref="E2:E29" si="0">C2/D2</f>
         <v>44.9</v>
       </c>
       <c r="F2" s="2">
         <v>-2110.46</v>
       </c>
       <c r="G2" s="4">
-        <f t="shared" ref="G2:G27" si="1">F2/C2</f>
+        <f t="shared" ref="G2:G29" si="1">F2/C2</f>
         <v>-0.0940071269487751</v>
       </c>
       <c r="H2" s="5">
@@ -1776,10 +1813,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2">
         <v>21000</v>
@@ -1810,7 +1847,7 @@
         <v>513120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2">
         <v>40565</v>
@@ -1835,7 +1872,7 @@
         <v>603323</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2">
         <v>20304</v>
@@ -1863,10 +1900,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>20382</v>
@@ -1894,10 +1931,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>20190</v>
@@ -1928,7 +1965,7 @@
         <v>512800</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>21593</v>
@@ -1959,7 +1996,7 @@
         <v>159869</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>20502</v>
@@ -1990,7 +2027,7 @@
         <v>513120</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>20043</v>
@@ -2021,7 +2058,7 @@
         <v>600350</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>20862</v>
@@ -2046,7 +2083,7 @@
         <v>601128</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>20385</v>
@@ -2077,7 +2114,7 @@
         <v>513120</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>20214</v>
@@ -2108,7 +2145,7 @@
         <v>159869</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>20587</v>
@@ -2139,7 +2176,7 @@
         <v>300308</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>24800</v>
@@ -2170,7 +2207,7 @@
         <v>159915</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>66511.2</v>
@@ -2201,7 +2238,7 @@
         <v>159967</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
         <v>66609.4</v>
@@ -2232,7 +2269,7 @@
         <v>159967</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>66555</v>
@@ -2263,7 +2300,7 @@
         <v>159915</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>67213.3</v>
@@ -2294,7 +2331,7 @@
         <v>513090</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>43679.1</v>
@@ -2325,7 +2362,7 @@
         <v>512800</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C21" s="2">
         <v>22165</v>
@@ -2350,7 +2387,7 @@
         <v>600350</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" s="2">
         <v>20900</v>
@@ -2374,10 +2411,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <v>20352</v>
@@ -2399,10 +2436,10 @@
     </row>
     <row r="24" customFormat="1" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C24" s="2">
         <v>23000</v>
@@ -2429,7 +2466,7 @@
         <v>159869</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C25" s="2">
         <v>20400</v>
@@ -2453,10 +2490,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2">
         <v>20080</v>
@@ -2481,7 +2518,7 @@
         <v>513090</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2">
         <v>20960</v>
@@ -2500,13 +2537,67 @@
       <c r="H27" s="5">
         <v>45853</v>
       </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:9">
+      <c r="A28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="2">
+        <v>21097</v>
+      </c>
+      <c r="D28" s="6">
+        <v>17000</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.241</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <v>45854</v>
+      </c>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="2">
+        <v>20216</v>
+      </c>
+      <c r="D29" s="6">
+        <v>28000</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>0.722</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>45853</v>
+      </c>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A26 A23:A24 A2:A3 A6:A7" numberStoredAsText="1"/>
+    <ignoredError sqref="A28:A29 A6:A7 A2:A3 A23:A24 A26" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -2516,7 +2607,7 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
@@ -2567,7 +2658,7 @@
         <v>300529</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2">
         <v>21980</v>
@@ -2592,7 +2683,7 @@
         <v>300529</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2">
         <v>21800</v>
@@ -2614,10 +2705,10 @@
     </row>
     <row r="4" customFormat="1" spans="1:9">
       <c r="A4" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2">
         <v>20052</v>
@@ -2644,7 +2735,7 @@
         <v>300896</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2">
         <v>34560</v>
@@ -2669,7 +2760,7 @@
         <v>603605</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>25440</v>
@@ -2694,7 +2785,7 @@
         <v>601888</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2">
         <v>24592</v>
@@ -2716,10 +2807,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2">
         <v>24960</v>
@@ -2744,7 +2835,7 @@
         <v>603195</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2">
         <v>20080</v>
@@ -2769,7 +2860,7 @@
         <v>300760</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2">
         <v>23799</v>
@@ -2794,7 +2885,7 @@
         <v>603259</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2">
         <v>26076</v>
@@ -2816,10 +2907,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2">
         <v>21420</v>
@@ -2841,10 +2932,10 @@
     </row>
     <row r="13" customFormat="1" spans="1:9">
       <c r="A13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2">
         <v>21048</v>
@@ -2868,10 +2959,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2">
         <v>21120</v>
@@ -2896,7 +2987,7 @@
         <v>300628</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2">
         <v>21000</v>
@@ -2921,7 +3012,7 @@
         <v>603195</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2">
         <v>23620</v>
@@ -2952,7 +3043,7 @@
         <v>300760</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2">
         <v>22500</v>
@@ -2983,7 +3074,7 @@
         <v>300573</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2">
         <v>20552</v>
@@ -3008,7 +3099,7 @@
         <v>300760</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2">
         <v>22410</v>
@@ -3035,7 +3126,7 @@
         <v>603195</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C20" s="2">
         <v>23840</v>
@@ -3062,7 +3153,7 @@
         <v>603833</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C21" s="2">
         <v>22240</v>
@@ -3087,7 +3178,7 @@
         <v>300896</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
         <v>34553</v>
@@ -3114,7 +3205,7 @@
         <v>300529</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="2">
         <v>21550</v>
@@ -3141,7 +3232,7 @@
         <v>300573</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2">
         <v>41384</v>
@@ -3168,7 +3259,7 @@
         <v>300628</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2">
         <v>20850</v>
@@ -3192,10 +3283,10 @@
     </row>
     <row r="26" customFormat="1" spans="1:9">
       <c r="A26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C26" s="2">
         <v>20244</v>
@@ -3222,7 +3313,7 @@
         <v>300760</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2">
         <v>22091</v>
@@ -3246,10 +3337,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2">
         <v>40740</v>
@@ -3271,10 +3362,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
         <v>20750</v>
@@ -3296,10 +3387,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2">
         <v>20553</v>
@@ -3324,7 +3415,7 @@
         <v>603833</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C31" s="2">
         <v>23000</v>
@@ -3351,7 +3442,7 @@
         <v>603195</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2">
         <v>23565</v>
@@ -3378,7 +3469,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A12:A14 A8 A26 A28:A30 A4" numberStoredAsText="1"/>
+    <ignoredError sqref="A4 A28:A30 A26 A8 A12:A14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3436,10 +3527,10 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C2" s="2">
         <v>22353.52</v>
@@ -3461,10 +3552,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2">
         <v>7721.26</v>
